--- a/src/data/Spain_Category.xlsx
+++ b/src/data/Spain_Category.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjh57\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjh57\..code\pythonProject\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F11488E-360D-49D0-A6BC-E498BEF679F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FA676A-F915-43FF-BE5E-EBAF8FCBA1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28695" yWindow="-105" windowWidth="29010" windowHeight="15810" xr2:uid="{840C3334-2357-4C08-81C4-DABFB40EC72E}"/>
   </bookViews>
@@ -1010,13 +1010,7 @@
     <t>https://a.travel-assets.com/findyours-php/viewfinder/images/res70/348000/348751-Almudena-Cathedral.jpg</t>
   </si>
   <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxQUExYVFBQXFxYYGSQcGhgZGhwcIRoeGxsaHx4eGyEcHyoiGiInIhwiJDMjJystMDAwIiE2OzYvOiovMC0BCwsLDw4PHBERHDEnIig4LzExLy8vLy8vMTEvLy8vLy8vMS8vLy8vLzEvLy8vLy8vOC8vLy8vLy8xLy8vLy8vL//AABEIALcBEwMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAFBgQHAAIDAQj/xABFEAACAQIEAwUFBQYEBgEFAQABAhEDIQAEEjEFQVEGEyJhcTJCgZGhUrHB0fAHFCNicuEzU5LxFRZDgqLSRFRjc7LCNP/EABoBAAMBAQEBAAAAAAAAAAAAAAECAwQABQb/xAAwEQACAgEDAwEGBgIDAAAAAAAAAQIRAxIhMQRBUWETInGBkdEUMkKhwfAFsSOS4f/aAAwDAQACEQMRAD8AWe1PZXuxrXx0gYWpF6ZOwqActoOx+mEnM0GQ6X1MYn2gq36Hni8nrmnpWxlTII8LAgCGHOdJ388K3afsirIalBSaZ8bUd2p7+Kn9pfLcfHGHFmcdpG2eNS3RW2UzOggSAsgsqDUWibEm3M4ZOF8VdAxn2wPApjudQI122EEzz2HIYXc3lmSxMqdmB0r6WG/ljMhWKEETpmSFEAwCBLNyvjXs90Zt06ZcfaTItmcmjZZw1QMXjwt3jDXqW+7DxW6j1iqszwutUUuzU/MAaSJ6jSIM2PQ4YezvH3TQof8AhSqgITFJjp1uCeQUkSCIk84OGbimRTMq2YpgCroPfUl9/wAKvqTqy6l1QLza9sK21ug0nyRewXF6VHLGtWcLTpJ3bKd2cFSFHUkCYjY+WHzgvaNM2lOpTWFYEkdItG9mBN99sU5xnLD/AIfT7syr13qT1Coqj/8Ab6YJfsh4iVepTOwZW+DSr/MRhM2O42vQfHPemH/2n9n9JGaojmO8AtLWCuxHKBB8464l9jeIfvFEAXZeg3ExbrBtsLRuZw71KCVUek4DBgVYdZkEeWKlyoqcPzxpsSRPhYk+JTtpA9kabHz6xivRdQ4S+H+iPWdOskK/tliGlEg7jHNkx3p1AwBFwRIPUHbG2nH0an3PmZRp0Q2THJqeJzJjm1PFFMm4kFkxzKYnNTxzaniimScSGVx5pxK7vGd3b9eeG1nKLZF04zTiR3eM0YOoFEfTjNOJGjHmjHagnDTjNGO+jGaMdqCRyuORprdnMIolvQemJT4W+2OfI05WkWLuRqVSASTEAA+3HT5b4ydX1Psse3L2X3NXRdOs+Tfhbv7A2nSfP5klp7lbtaV0bAKSbNNovz6Yt3gHCAqd4RpkQoAsqAA29AIHwOAfY3s73NPRp1aSGqlIXXUjaeSr1/E4ds7UmkRZSQIAuN+RG/snHzbe1n09b0KXaTPCRSV0S2tx3gQwZgA3Mb8unTHThdVWytcag4p6WUmrqtqv491Xwx0scDc/mmNVtLjSG5OtyNIK+wY23n+xHs1mC/fU9d2pmGnUEb3QYAHU73AO3LxoSc8zXm1+x6k4qOK/FP8AcD0Mq9d+7Qj7RqrXdlpr1bYHYgLqMwdgGIZqZo5emJZUpgMwNQw1V1UOHLcxsflygD2r3eVy7P7i+IlzBrPIB7wxYG0cojYAAVh2q7T1MyzBXanQBMNU1NT2AjWlMkSALHqZjbG7DgWNUuTHlyvI/Q27V9r6mZqlS9KixCie9cU2CydwI3Y8j69QiMaYlFro3N8tmkqBj1KRI9LY1Gc7tSKTVAp5U8xSzCE9TTqAMJ88LucrCobKhJ5il3bT6IYnGhRJ3SC1Tj1aT/Hq/wDfl1LfEzc4zHbJ9ksyyK1hI2LXHrjMC4+n9+QLkWea6uSwsFPTYiA2/rP1tz61U0lWU2A8JEyOZ+/fALhed0OyBGcvBAMXI8JLcgLA6r22BwayeY1MiAq2pZgbGDeJuY1RPMYxyXkun4A/aPszTzBY0lC1edMwFqxEleSPz6H76q4pwxqTGQbGDqEsp5hgxhfWMXfmqQMlTAknzvJPl8fXEHjnCaeYWKnhraYFSJDCw01Y3HnuMPjyOHwBKKmUxlaxBBBJGxjxQCRMQAoJAjfDj2b7RGkpMiI8NzFNtHhUQZcaigIvERyuB49wSpRdgyERcqbxOxUkNKdCowMy+ZZGkfny9TaYMWmMbE1JWiDi4umWp2x4SWoCpTRVpjvdSLFixDd5Y7Fhy21YVOwWXK50UiDpqKQSDBAUat/gR8Rgp2U7SadKFppgwoOw1E6lYe8CGJJMwYnrg7kOCd1mjmaQXuO5cgSZRzHh81iSp6WO2OVt0DZbhfIdtqNfMVaFGIQg979qWhiPIWX443/aFwD95y/e0x/FpXA+0PeUxcxGoDmRHPFQ9jC1PO09RjUGVvOVJ+J1AYvvJ8QSQmqXga1i6al136G8x54z5I6JakVi9caYldguLirS7snxJ1jrcW2POPM4cNGK97TZBuHZ1a1MRRqmQLwD7y+QvO2xN7YsHJ11qIrrdWEjHt9Jn1wrweF12DRPUu/+zVkxoUxJIxqVxu1Uee42RGTHDMVVS7mJ2AuSeUD9c8bvmy7d3l17yp191fPz/Xrg7wjsgoIqZg94/wBk3Uf+xxiy9d+nH9ex6WD/ABvEs2y8d39hNPG6HMt/oN7TjY8cy0Qdcgzq0m0awQBMH2Gv+d7CqdlssTPdx6H88RKvZfLBgAm/lO5jpjNLqs7/AFfsb49J0Mf0v6iI3GaN4L728BveMe5fitJ20qeXvCLwDEHyP39JxYi9lcsP+mPkPywE7Q9k8uw0quggSGHrzA5YP4zqFvafyB+B6CWyi163dAdVxt3eBFUZjKmKoL05s+/16+fzwayObSoJQz5c8ehg62OXbh+DyOr/AMbk6f3uY9mv58Gnd41KYn6McqiY1e08mHQ3wBeKZxcvTasdxZAebefkPywL7B8GetUOZeTUqEimDy5NUI2ESVBHmemIecnP5oU0MUKQlm/lB3md2NhE73GLNyeVWhR1OugBQYUldKqLL4YMARzFzjwer6j2km3x/B9H0fTeyxpLl8/EkZ6kuXpwonQs+pv97T8hgb2MzTu5RySpUuDfclZFzsb/ACEc8c+0PFUq0BUWQHIWJBgqAWBMwI64gdi82f3lTuNLTphjtzj2bwPiMePPI31Cp7bfuevDH/wStb/YiDLPUqd0mrV7za6oCx70h7fj9cMdLMUcpQqM11KnxsC5diGOpwLhSU07TYcoxrxLM0MrTqMQAGZmINy7EsRqi4SQwEDcfOq+0PG3zjmo2rupOmL2lj7QpMAPEbPG+/PFsOFY/iSyZHk27G/aXtG+aqHxFKU2UVQurYAoKrKpHhHTc89geazHdXANMnmorUD6zTapSOOVfiOkHQYG0KxC/JKlSn80XEXhnCXrtqgKvNgqj4DSAG9YxoVJE3sRu7q5l9MF2/m0kjzZgot9cNPDeGJl4MCpUNi3JfJcd8nlkSmy0hEGCR71yCZ57Ya+z/ZA1gj1pSnLWWe8aLWBWIJ5+uG06ueCLnXAu6upM87YzFuUMtRpKKenLpp912Ba9/FJ3Mz8cZhqQu5WWaRVCwhCh9RYzLCdJYkReIIFojpiVmHNN1ZYBU6rAjwxpJYwbRpv1tfbHEOK0Kolio1iTC7q2vkvOFG5AjacbUQGpmSFDgq5YyzFbG8WC8h0g+uNo1hscQDOga8m7gQNjEEC4kRzPM+WvFlqMrqoh9Ji/wD3AqdgfDHqRgWXZ1WCQygMxOykAGBNixKmAORJO+CNCtqFMDZiCBvYibm2onSb+eFUaYW7JFfhlPMU+7cHwjwtENTJm0G5ERKn6HFVdq+ylTLvGm26xdWHWnP1WxxdCUdHiQeGbjnI5jra3w+OI2cWjWplKoDJebxpYcwfdNzfyM4MZODtHbNUz5/ydfQZ3B3HX52PpMbYsfsZ2gQlaVfxIVKgk7SCNLcyLkBosIHPAntf2Qeg2tfErGzCwb+sbK/rY9RhUo1zTO1unL0j3f8AY8hGqMlPdEpQ0jhn+zujN5Z1k0XqppbyDAlG6MBYjmL9cdv2dZ92zlVnZiarByWM+/p5/wArx6DE7sjx4PoovphnUKx5GSBPRgSIPPa82hcB4FUyudnWzotKo9NvdZQjaT6ggSORHpgUnHSwLZ2Wb2k4Ymay9Sg0awJU76WExPQ9R0Jwm/s/40V15asdLITGoxEGGBJ+EfeZkyv2b55hQqNXqHUGYs7zMlg2oj1qEYB9oeC0KuZZmdlMAkIN4gg+yQTtgdPkljmL1GKOSFMsc8Qoc6tP/WvLfnjjmc5l3Uqa1OGge2OdxzwhZHsfQItUqmN97RP8vmRgl/yLlR7Re1vET9mI5cremN0uqbTVGGHRxjJST3RZPDOI5CimmnWpAbk6gSfMnc4lt2myg3zFP/V0xWB7E5X/AO5EwTLXJAEX+Ax2/wCT8mJ1Kx+L3n0PpjNq9DW1e7ZY7drMmN8xT+flOOFTtXkSQTmKfLn52wgnsZlpjuWNubMOc/bHO+PF7IZX/KY841P1n7XW+O1B0D5/z1kP/qU5deZgcsDc923yDMCMwpsIseZI6fH0GFml2UyYE9weoln6yNn6mcdV7MZKCf3aQOcvaPV/PA1naAlW7Y5FgVNZCDyIsZPTn19L4EZbjGQps5pVkAYgxJty++T6YlN2Zya//GAtzL8ttnxunZfKTAywFv5uVh72DHM4SUkgTxa4ODbp8nEdqMr/AJ6fXn8Ol/TAbtR2ppGjoy7ipUq+Hw7qD8JlthGD69m8mTAywJHK/K15a3THNuzNMVKRpZdU/iJcTa8T7RFgeeK5OslKOl9yGPoccJKS7HfsL2eFCn4gNUguSCQz9LXIUW33k4KdteIotHWG8LhQpB3kz4SOq88E82VFJVQCBII2+7yO+Bz8IpVMslPuUZVqEKhYwJWes9bYxTuUXHyjdBqMlJ9hY4cHzGVKUpdhXFtdgGptMmLKIv1+mDbZ2lw2kXZwzlZLE+JyYAImdKKCSAd+u85ncxleH0m004Z2HgWf4kCLgmdMmBe94BBM1jxjilSu5q1mJi4BYhUvJJI3MmQqgDqb4THhUafcfJlc7XY947xipmKhettJPdktsSTOjxsBLG3gPnGF/O5+SAPEwO5gnyu5qP8ADUpxsaj1iKdIWPIDSPgqnbzafQ4YuD9ldPiN2A1ELpEL5aupBA52noMVlKMeRFfYEcJ4AXIetN9lJkn1JJgeWHTgXCjWq00CsEkByosqnckxAsDv0wWynZ06yWSQm+moCWnTZdSiwBux5g2OHzhXD6CropxCwGW28b1I9s+tumHhplvdkptrYAcC7M0qQLKgYSD3lRdRsZHdqOl4F5tc7YJPXqOStNhSBgd68FmOxAg/wzNoaL+dsHKojzgj7x+eI2fowIUCwsL3tsSAfD1kGehw8lYiYA/clWQJaCfEzXJm5P8ACPPHuCFLMPA01mK7g6VaQb76ROMwmgNlacORWDgCF1agoIBv7xb3iNVyZBjGUKzDXTXwhm1lyQQLQRAMFjuFm+q9sCs1xzL5dSaVNqhQ6G1yNySzAX5rbp983gHaCpUdwwQ5dSAoURYhiCAbzI1bdcZzTZPpgLrBnSoDLrLSNwxvz1AX8z5YncDYh0VgQVDGDuFk6AenhfEPQveAapcmQCSwSApBP2iw8U7KYiTOO/DK6isylrkQFYjVuQY6xG/p8eSOZP47xBKNNQ1QKrG5JgqIgXA5mBPnOKp4n2yqV6sNCrEGWEKdLIwS7DSQeXzwc/aZxg6GpK6b6WpsJZgVFxP2WNufP0q8NB9DjRHGmtyM5tPYuTslxYNqpVipR/aDAnXINoiIAHw9TiD217D6JrULruZ3UdG+0vR9xz6kF2YzH+G+tRcAnSPRpU+U7CemLeaoaiU3Bk9eQMRPnG4J2jGanF2iyla3KGoO1JouINx0/LFidkONisrUKjhSUYJUInemRafe5ecDmL9u1fY1a81MuoVwJNMRebnR/wCvyjbFc02ei8GVINxz+Hni0JqXxFnGuBrzL16FNlrMP/8ART1EWDIodpEWZTIO3LqLOFLLUye6d4YIJVCLhRpMkXBlWEH7JwqUMxTz+XFCqxWqrAowNhYggjnOx6bjmMFs1RZc9UqhSVKEWFp1Fx9GI+ODONq0CMuxI7JZgU3c1KzVIBJLadRAFwSpv1BO3xxs2cqvV705ggEj+D/BCEA+ybatuZM4UqGQzKvXgVAvdMF23JQCP74l9n+HVdJ76dWrw6mB8ML0MbzhXrpMeKjb3H/tPnCzClRqtRAuSppg+K4HiUxAINuu+JHZvMDuTrfviCG70lCQsE7oABsbxgfxnhlU1arpT1EbAlVnSosZuMTezfD3XL1A1MISgGlTqCwHG/S43xNOep7bbnNQ0rchVcs1Soan75WW8hVq0gi9AF0wR6yTznBji7BqaqjmiWHtoySQJBgkGJM3F7QCMC6vBGIs5Uj7DLJ33mbYF8RyWd00ArwRR8fjpjxd5VM33ERcWt1wsXNp+6FqFrcYOAUDScBq1StJgJVqIwk7QdOqZ5THljrxen3hC9+9GNxTqIhM3v4SR6Axgd2Z4bXV6b1ahYioPDqpkRK3hRM/HpglxPJk1WNhEbsB7o5H1wbnp/KBqOvk78HqIqsvemvAPiqOrFdJvcKNoMzJwKTILr1nN15mY75dPpo0aY8ox72eyNUCprRFJ7wQtRak6gxm21ybfdjnmuFVe7bQyq2klSHQXgxMnacLKU6S0hio3eom9pT3tJAtR6MpJalUCloJFjBO87HE3s8xUIzsWVrIGJJssyCbmAOe5J2ws57h+dNGhpZdQV1aXpQT3rEQTY2YC2D/AA/L1CcuGC+BNJ0sp8TCGiDtMbYpG9VteBZJaaT8kisrMKtNHZWUj2CmoEPBgsDG/PljhxPilPJZaKlapWdjIDMGLyBYQNvhBvyN/OM5uhkTXrNLVq7WUm/kAs2Wbnr6RireMcVd3NWs2pzy+zPIfj/bFuNiaWrc941xV6rmrXbxchyUHkPhub7/ADE06FTMeI+Cmu7HZfIRufL9Ejw7gbVYq5iVTdU5v5j7I8/lh34J2aNf2qcUQpCKLSRIlRzibttNpwI78DSlpA3B+EooKojEAEsQJdogDbaSQPKcE8xlNCHvP3UuslnNR1JG99KyY2A8sPrZGlQUIF0R4w+41X3kgsd4tYYrztS5LFmGUuZ1QHqGP6l+c/PnjP1K3UUHE+ZMU6+cqlyaTd2pA8VHvVMEjwkvcDUJuNwIBxZvZTtMdQSvUpoxY+BUaSoTdpkjrJIMLcXxXHfWCooUQYePEZBBiB8+fMzgr2fy1SlUDK3dkgKWIBjURPIhd7xJIHLFIVDgElq5LsrCVJEQRIvv0/3wP4jWBbRqIMBtWgMKZ5a5ERz6ix22lcNzK1KSuGBBB8Ui4BIm1ht8Me1FDU1EWkf+N+XpH6jGp7ogtmRKtO5mmT53/BcZjhRL6Rpa3LSbfABzHpy2x5hLDRTWdSsyQulmAJcmCSZmdJgnfpfCdQoLRrKCpq6CCdJi4M6ZgwbYdKOYK2YK68mQCQZm4Mbx54CdqStRQQSNFyGkOeVpHOZ36WtjPB06Zdq9xs4O7VFpvUprSZRNwb0wbhTveBudj8cFaWVGp20ajOm5M3VOfnANsI3YvMUS2mamprEH2dJGkEEGZlunIXw+0VhSA0+Jh02OkR52AwXFPZh1dyvv2iVqLVBTp0waigE1JIIkA6SNntzO1owjMmHXtPlGfM1mj3vuAEfTC7Vy/UY0Y0oxpGedydk/sxmCFK6tjtFwPK4xc3AM1OXLFtcRsIJJAm3mTimODsqKZcgEyIBt6nFu9nmb91BmSdMNp0mFAvHwOJSXvMpHgNUKisSCQGFp5cxfAPtX2RXNIWEJWBs3JrbN+fz6idGkkEnwlnJ8yAet9/u2xMyObNhEiJJ+AJjyuR+WItNMsmUVmMvWytbSwZKimem3MYdeG8ZXNamcoKhUqdXPwqJspj2ZOHDtN2fpZynBgNHgqAXU7w3UeXripcx2PziOywtjEioADHxBxXHkT5ElDwO1FqQaqe9o+OIgnYd2TPg/l8+WJPDnpU0C97RBuLbGDNpUcsIP/KebiSVA/wDyf3xidk8yffp/68XeRMkoyLm4bxei7aTVpLeQWPRCCDa243/HB+k9JUdO+pS9MKIPQESfLxDFBjsbmRvUpdfbx2p9kMz/AJtH/UeXw88K5JsOhl2ulK576jz5+bn/APsfI44V8tSaB39DwppPP2RVki9hFUH4HFRL2HzIH+LS2+03WemPT2MzI3r0RIO7MOk7jlIwNaQ2hvuXNkaFNDPf0jpaTHl3M8/5fqMSM3SV3qMKlMAzuf5aa3+KkYppOxOaBnvKXpqPMR0+OMTsfmjcVKfL3j+I54V5F4D7P1Lny9BVYnvaZnVYfzNUjn1aPhjQ5JSpXvKV0K/6mJ6/DFOjsdm/82n/AKzy2x1pdkszNqqW5d4ed8D2q8B9l6lsV+FhlQd5T8JczyipWSqIv0QjAztFxmnkqaEuj1PcVeZkGT0GK9qdkc3yqKf+8jl9PwwK4n2ZzagklGgc3Jgfr7sB5V8ArD5Z7xLi9StULsS9VzCgXN/dXoPrgxwTs2QQ9Ya6x9mnuFny5nnG3rgj2O7Mabp4qhEvWYQF2sv2R9TzgWxYPDeGBB/D3O9Vhcg/YU8vW3rY46MXLnj/AGCc1HgD8M7OKjd5XbWxjSgvNgPjt/SOp2wzZRG1gsdIGyqQQbGNZiWtBAEAY606IWdyTAYySW8/x6Y7ID8iT8L/AK+uLpGdsgcb1FWVSHkQabQJ9NQj9fOr+PcMGsK1ClRG8qyszecgkACDuDN8WlxpQRDqGHIKSrj5EGPTCtV4RSZtQpNTgndiS1heSxgekHe+M84tzspB1EVMvw8eyq3YdCWP3k/d52wayXA2jxwBGxgmfPTYDbmfhg/QyyoIVQB5c/Xr8ccsvWD6oHsmPyPocNQXI45HgWYrKA1TRREgKJgwdwAZPPxFlPlhny2W7mitMEsElSWkk7ktaIPPpy6HHLgNUd2b+y5G8AWBv88FEWdVh1B9QNumKQgluuScpN7AyKQ9p6E/zLqMcpJaSYjfHuPP3LM8qq/GkrfW0/IY9x1vwdt5PlrJZtiCyHS6+1EQR1jYjkQbfPBVuIitQYPIdB5kA8iOQUnedj64XeEH+Ko+1Kn4gj++JVMFWgH2lIO5tBJmPT4YMopnRYzdjatXvQBVp6ZlgxQk2MadXi3v4THXD5RrSoMQd7XAJv8AQ88IXYrJUqneM6xpHhcTKkgyYLAQBecO+d4jlqCeN4MezBk6YWwgzBFxq64g5RUq7lknVirxHNB/Ekgl5NrEEyPgcdG4QGuII6gzggcquhVINgACRGwsfjv8cSOC8KX94TT/ADT5wp+eApi6RSz+UFNGWLlif/FI+84ttHRMuhIEIAfQAydp5eWK17WUgMzp5a1H1UW+WHbjEvllXcmJnyvbzn8cVkk0rOjybcG4rTzGvRJ7tiT/ADzadoAmQBJtBwSmDAPMi3kCG/AfPCB2JBpZlkgkQyjwkjaReYFwOXLBbi3Gmp5mnSt3Y3v7R2MmbweXX4YiyiG/J1SCbdNtuZ+Un6YXOJcQJrMoUSWJ36NF+nO3pzIGC9POqtVUJ8TEwN7IL35c/jhU4xUAZgDAHiLSJnUTE+o5c53th8cFYJyonvxDaVHht7WxM22jGr5lRqIUbgNflyiPK+BS5oPDkE20sRyaOc7R0xLpO3RiRbY+KTv8PLmBi7iRUgg2bUADQtxI8XIdfPb543ybrUBjwhTuPQGcCqQkFQ1x4la/iEXA6gTePPBLgtcQ94lxM+gsfK2OSXJzb4M49xc0ECpBquLEwdC7SbmDvupFueEus1QvrLVCZ31zsQQI0mRIBg2sOmJvaHMGpUrMCdRlVBN1ggRZ2Ai4s0dN8cgv+Df2RDeK0wdxMm43xmbt2VSoYeyvG2MUqpudtyfU23mSxsBIjDK1XRsJv+pvbc/liveCVWXMJVYmRVGmfFKk2EFlHMESYBjpi5c/xCjURVDB/HOmDeJgX3kwN+eHVNVYrtPgWU4hTNytp+vl4r/3G98daeeQE/wzO5i/4+vyPxOHJ0/CulVZ9/5fJfOTvyEk33kJl1AJWn4j4UBAPhESxB9dz/LgaA6wEucUiQGM7SPr7VrX/RjnWrU2BsdtzFvI+L9fPDSuXpXIUaV9k2uwmZPO/XmDj392SFhVIIl2UWFp8M7fDkcB477hWSjtw7JqtOnIAGlTpAgAwL+Z8z9MTiP19D9+NUZbAWBFrcuX0xA4rxAUtLHYkCLXJN9zB5bX26nF3KMFbIJOTonPABMWE+fp922IoqhwVNm28JGx2ZT/ALHHXNP4Jnl1jzEE2B6T54WOzzt3tSqZEtEFWT1OknQZt4gBcHE55dM4xS5HjC4uXgm8Q7NoKY0u2sm7t4twfdNjfr88RcpwUUjqLamaxMAAAdALCZn5Yac+w0H1H3gYgVBKg+f4TimiK4Qupi1V4q1xTQCObfkPzwL4jmGpUKjxMCSoYjVeLkeRnBRqBDERNz9D+vljnxPIlsvWUqb02if6TGJsdGn7Ls61SnXBUCHUgLPNTuT/AE7wMPqvEzYaR8N8Vd+zLOpT74O4WQkSd7vsOe+Ho8epWCK7zaVQwATzNrDDwlFR3YsouzapQWbZkKOki31xmAfEHyZqMWp1tRMmGWL9PHjMTcpeF/2/8DUfL+h828KMVVYzAk28tsF+Dsv7xTLWUE8p3BABwJ4ZS1sQPT0sTidl6RDgA25H1kffjSyaGvI8KPc5ddI/j19RFxqUK0hovHiHwttiJx+sauZqAkkLUKKOgDEQPXfDpw6l/GyS8kpu3zKgfccIHfg1S07uW+uq2JZIVwUjIl8M4hXagxp1Cahq296AF8pgFhYRcTA6WT2Xy3jUxeHJB5GQPxxVfZcjwSdkEkkmAxMwCSIgfZGwucWZw7ilRKkgKxbpIsSbXB+zcDrjLklUjoZOUxe7c8EdM3TddTitUEeGdDAyQY3G7X5A7xhy4dRWosqDp5GRBHl19cB+IcVavmEDKFVBUaAZgpSaTMA++Prgs/aWlTlAj+AhZgabEAkEGfpikncU7GWzoTshlCvFTZBB1S2qY0biPDE2/viLx3/GVhcnmupp85pwW8jg3xKtSqPmaye7SRVJBBBYv1vvGBuU7mvXpU9akLEgETCJN/KQMFR7BbOjVS/EqZG1PQp+Maot1JG+BHaeuDW7sEQNx1Nrx8BfyEHE3JVQaj1kdatSDUMkG4ICxHQsPlgEiJV4hVLuqaQw3gArU0+8ecFvjhoxYHJBLg2WIVmAlZClfI89jEH0G/lg/wAKy5eCZIFgb+yCYHT6zYYyjk6KUmRaqOahgXUydgInr8sE+E01pqO9emGO1wPCLDcybg/CMFt6QJLULXbmqaT0ChjeY6QPMTe8TuBgvwbO6lDCIdh87Tf1wF/aRUVzS0MCIO2POF50rlw4psdCM8l7EoyqZkT7RHPrtgwdKmCW7si8W4iuXXUSSTZUBiTEn0A5nzGFh+12ZJnUoH2QLfU3xt2wry9ITtTn0LG/1XER+z1cZcZju/4LbNI5EjafLbfyw0YxS3FnN3sN3Z3jv7wyK9nWohIBMMNayR0xd/GWUJq0izzIsTpk8oNyNuePmbslmDTzNNxussAeekaot/Ti7+L8aq1coS9KA9NXlYj+KSoB1TaZEEbA+uBJKK2Cm5Uc+yPFXzVfMM/shV0i8RLeQ6dBAgcsOdANce9EKx6TeepAIjyHlhF/ZjSipXH8q/e+H/MKyrqVSxANhvsduvpb8MTgtrHnzRC4rKoQlgpAAF7kiT+vXEHhlZw6qfFTYHUJuCNMECL2EdAJwZqZZnpwRDTMHyacJHb2o+W/dapYqozIVwpnUpSpMgiGEDYg4Lj3FTG7iVcrXpRYLuRttETB+R0n1tjXjtJmrUgJ0zJI1DYTuvhO0eKPrjWtT76oxCnVT8BnT9lWsY1XDA2MemJFaiQVqPe28SZiOW4vuZOIuDkn8b+SH1JV8KOlRx3JEyQpBtr6+0vMW5XxB4DlAlIADck7MOcbPcbYzhWWWo7oxgyxUgkMArQY6XIvgip0EAwFC+0WG4ixkzJ3xZQuet+KEcqWk557iygFDTba5tEDnFzFt4xtks2lRfBcT7QPlt9cSKQp1JGoEASYblsZg7evl0wMr8Uy9B2RqiCWlQJgzeLCJ8vTDttO29hbVHHMLpZiBJDTHWTMYWRma5pVxUs/hOkwCVZiDEnbwnBl+MA15WSDECDJMA7AEmw3A/stdt6J/eKMf9SjWTc7gKw6bXN8KmpXQUwAuWMSJF9xaIMz62t0w7cCRczTZhSV6iAApVeowaSfELnR7O0GCd4tjhwTsma2Xp1GqQaiKwgA+FqYI35yb/3nDB2P4cMvVqKaqsXAERBkQfrqOOUN9wykjtlezyMisFRZUGDRFiQJ2A548w0UVgfE/eceYrpRO2fGGTqFQSGIE8udsGeGZ7vDTTxHSTFxFypuI6jrgJS/wz54K9k6J79BHn9cUS3QLLUNTTXnlSykn51T+WK2y9NSrXVZQg8okRzw/cazS0xnCR/01pi8b0l/FjYeeK+p5um4ZG0iRCmNOkyIO9+dokzieV00K50qRLyWcFJdIcNAlYg7WEjewi5HpiR/xhkJa6iRchdgfFzkGTyjfAOvmE2lDEQYBBJEEjeORM/K2IlDNvq8Jnl1t5jy87Yg8Wq9hN2PeW46dRfcldNz7rCDB5z8Zj1xNzPiD1QxJgsyzJmfKJP98V9R4pUuC7fON5n43O2GPIcRDKwioWUbAmSGsZUk8+Y64lLHKDXgKcouwxSrVEyVQuV1s1ITAi7IduYGs74FcOrLQru4qeIKwKxzPhnkI9JwW4i6LkmBJ1F1Oq5FirDYb+Hbywm1szqJdEBN5MyOu14J5fnOLxblFDTyX+UZ+HcUWmIKxIAiTsCvszbYdRjhS4Mhq1KgqgtUYtAggSwNjz3N7fTC3rLH+ItTVcyJGwvBnaOg54JZPPCnckg7Re0XtIg+vniemUfyslqkuGFMpxE0ipam0KwaCv2SDKzHQnEnNuMxFRWACUhZhcgGJHLdtsBeLKhHeFiXYxZRexNiLnrfp5nHuTzsMoAIJPswZKknkefUAH6YMJNI6MpLdG/EsqdIf3QQu8XbpG8Rf1GD+XSMg2/+A/ObGumAmb4dVCadFQ8wxQ+5flYagT8QOuGVKDnIEaGn9320mb5gWiOg+WN2hcpdi9iRxPh716qrTEsKagC5k+Jo+scycM1XjzrkKuTegumlQ0sy+0CQxSp7UQToBWJu55YhcIybisWamwXSACbQZpqD5RJa/JTiNnuH5urrOgwUUAGFsqpAItJBncYVRjJ1T2+g9VHVa/kG8K4Y1OshJUgytjeWpMfZsY3vtte+LrRErcOgMyjuqKkjcaatSd/XFb1soyOP4R0wCYuQQpAMmTF4jpHlh44Q8ZQAnSO7WZkf/I5/32wMsGl8hYtWcuz/AAkqKlTUWSAJcxfUBA6b7332wz8CoEOdvYbmea45cJo6EqSwgkMdLSICueUiDH6MRMy/EaVNDUmWbwqqgGPUH7sZ3UI2x5zJWe4eves7H2mgDccrnADtRwCnmqOim4UrVVtZkhYG21yVJtIucdczxVBT1Vu7plj7LOZKi4kKQUtuL8hY4KUcxTpooEKGEiI8NxsRZYkWx588k71EtbYTYSGgrczz3CKpn4g4jVy1RAuoAA2YMRYTsR1EfjgRxvOMEdu8qoBBJRCzDkp0xqAkdDG+IbcTBpogql2Ii4CgusAyLkkHcXiI3wjlOTcgOe4d4FlFSspGqO7dZJsAXpEDrJgm/nfAHj+eqUXfToDEsVB5gNcjkIF/l1x5wzMZkKHYlusMsMQTAFhtvEwBO5N1LtD2kd6iCrKw4IDCDI03DCCvO63gxPPGrHlbjplz6B9pQayPbbu9WsEkrcEREFbCSQR+eBWc7TPUZnEMDNzqXb7IkrInczH3J2Yz4YBVGsKuktKrAHI7GNyb8uePFrTbuwIDXOmL/Ek/SBtg+89iTnJjDW7Rzp1OX0myzpBA5iOc+R+mJWe7QGsaVQqZpO50sL6WWLEKJFxciwtHModbPwdUITNyI0iIt4xqMRMSD547Di71CBoQztEhQQTeB4QT0v54aOOUd0BSkixMtxoHLLoBfu6elgK2mdKwG0k6miAfBgv2U4sBXBYUoggaSxLQV2moQpIIIB6HFWUMzUJjWAgMEh4BYwQBYG/KOZ3x2yOfpmqq1FZEEAsGVSQBeTLQB0BuNoJw0U7sdTbPpFM1ImGE8tSW+TYzFZUMq2le5Y1KcDS9OtCta5A7y15+M4zGi34HKWp8MYDn8t/rgrwUNTfWiSY2MwIJnY7CMOCdm62zVadP+oqD9DOOOU4NQoXfM99vKqrczJAMj7jjRkhGO6ZyjKSoV+JcV1GqGH8RjeSovqXnAC7ESBPKL4XqlByZgKImeQjcyJMSdzif2nzNN67tS26aQI9IA5Dnf5YFtWdhBYwFiNrDYYjT7C6aN6NUU5DKrTYyLj0PL+2NatQnSAoW0WMT6+eNstmGQ+E39AbdJ3j0xIfPpsomNpuOU+1JAtaDO84D54Od+Alwyq4QwtOSIklQNAm0r7RkyRfYYl06pJBUjUDc6ixUdQxsVJ5H5WkCaGbDK0DTAuQ0WMAx9kAgbA73F8S+FMLAKp0gmzEbXIJB0m28YhOPLFaDuZzxAIYHUy2B8oAsFMyDYg7jlhRkq1xEG4a58Q3Cnzk+VtsMFDN0XvUpWIvPikx7sydxyYcvQD8zR1VGcQuom9xctI8v9hhcS02qOpJbkOk0WDRvZhAYgWiTA2tMffjpl82e8giOUk2n0sJ8/S2PEoPqky0GDqO4hSedj6Y9pZTUWDD/ALVO1jsDaT57Ys0gWg3lcxTdSrgKGMAzMnlsT5jccsRnr0qbEoIJbTe8WAEbECb/ABOIdJHjRo3lh5fiRHXHiZFmIWDM2id/K22OxpK7BaTGT/jjKdIqSRuNF5MQoGrc39bYbuF0HNLVUILEEgDwxfnfeOmAvAOzgo/xaniqt1khfTqfPDGaxjQo8TeFfjuY6ASfhh5S1Oono44uMdcn8gPxHOsulQTrckgamsqEBjZgdz/4HCzW7UVkJBU2APt1LyBt4tr7407Q8VVc2xAmmqBFHkki8G4Jk/HAriPGDVD/AMyogBEwiDl0OoT6E4Cm4t72jPNqatrf+7DvwDj7d6UqVJBg+0xgEDqeXPyM8jh5z1B0pF6dyPdkyZPu+ID54pLJ56WWD4tU+zsFQ2nmLbRsfLFudmeMivlgmrxJ89Ow/wBPsn4dcUm1kja5XP3Oxyp6Xx2PMj25alKlZ/qERPK5Mf2ODdXiVXN5YvlnWmYMt4bQSLwCPaHSbEjEDNcIp1UnSA459fI9R+uows8C4xVyBqUqtMBGPsExaSZUxeZPP64yzbrc7ItPIx8Wp10cU8uO5RBJNUoAQJJKyQZtfURsfgU4s7KopKO8qaYeq66F0geIseg1ExPMxfHPM9pqNahVNIl2dSCAskHSYmNr87DzwP4h2wouSUadUqaZBWbAQdwTboIk3xklT3RHatgHmstVNYrSIpaVliYZB4rKHaApM3hRfVe5XHtaiSUZu6apShFqmnUVU03JfToBUSbwBZ7bxKoZpcxpNTTQ8alkNXT7BJUeIaDLqpiZgC8WHue4fXbMU6DZljTLkppKlxC2DAqBMkC7QSb3OKRpipAMdqqwLIXStTew1MQCCXuFaHFgbWNtxIwB45mO8fxCTPtEnopFp1OF2FzYCTiwcx2ZK0nc0KbhbsUJQsFDHVtbVMkeGCPUYq7iIq5cmaZ1SZYgeEA335+VvMbYaEKlsjpKSBdKgqkyxL8/A1iOgAg+mOq5ymRFViCQPdLADVv8gLRiDX41VIALEEdLb8jzwNZp3xp9nfIyg3yMVcgQe9FQruCFkE9Abj+oTy6Y45aoneILLDCJJa0TfUDvHICLWwEU7bH1nBbJ8QUbhVEabLMzufFPy2MRzwXGlsK4NHatmKZABdQZOoIPC0Ne4Wb8iLD64hUs8VZjTJUGZvMibTvB9MeVcszsNCtBmJWBsdiTAHqbY4+yfELjz+Ub/jgxih0lQ25PtPVVFAq11AEABUIAG0HnbGYHf8ZpfZj+koB6gabTvjMdXx+p24YoI9RijVTIAJCoxsxgeJ7dbxgjS4UtMt31gIgtULTIPuppBgx5b3xG4dnA40VA2vvCHGogQoBkxG8gA9GOJFDiT969Nm1BKmsHbwlSVEjkrXA9OmA2/JbnkWuPcOFJnJLClJ0MumWOhSJE3ElhbbbzwtUsuzzpkqpEnncwDE4bs7Sp1NfesRTR20qDAOoIx538UmPPAommtNVWAXK6iASYtvP6k4OrYVqiFWpIFcaj7QBBUSDBOoW9nlaMRqmQZYuJImJ5dPXyxMfLlnYtIUm03O1v15Y1yhWPEZMEAESPaO454FurRLVRARR5x+HW3TE1jENfe+n0O1+f3TiUgDEkKQfhtfaLbc/XHFMqbkCRJsen5zjtV8nawlwqtQYM1UsDf2SABINxMmB6RtOIua4ioYhGLJaCdzt5D7hjgmWUgiCCDEbb9CR+vpjX9zgjTB8iRsB6354TSruxfdb3O+X4pGrzJN/liVT4qu5Hy67ScQ6eWUgGIvz+4T6b4k0cjqaFQEmAPkLERfB0psD0kqhX1sAgJMQB1+MYcOA8LFEBnjWeUez6fnjTgHBhR8XhDcza3kMGlDTM/GMc0uxt6bpknrmt+yNncnrH66Yg5/Omll6teRqvTpR1J8TD9e7jaqxJVFu9Q6QSNurc4j74wP7VZoColBDCUlggcyRP3AfXDL3YOX0H6jJclBdt3/AicZSHH9I/HEGcMGYAqgQ7Bl22v5YFVkqqfe+OM0J2qISW5rkD4/gfuOHzM5hUGWakwVjl01kf5ksAW9VCgg39nrOFTgGT/i0y4BDVFGk8wWWZ8oti1+O8BoCgyomkSVEHkJHvHcQLyOWLYsmmVrfz8AOOpUSuB8QGYpSLMtnX7J/EHBTM8MpZmmadXeLH3l5Sp/XmMVj2U44abCo3Lw1R5D348vunoBi2qUMoKtvdT/fFOoxpbx/K90NCWuNS5XJXef4RVydUMrEAmA4AhhAs0z02Iv1wycI4hk65ivSpLU5+EANbqB1E/jg5mVVwVdQQdx/viv8AtN2cqUPFRlqW/Msm5tzI89xF53x50k72ZKePS7XBYv8AwLKkCVWBAAG0TtHI/USepxC4Q1FKmYTWAgrqUAaynuaTEKBIUamYwQN5xV+V7TZhaZpkEp1O4iJv0t8b4n8B4bUzAdlrhWLSVLEEjaSR4eUQBy88LUlyBNItfOceU0z3VRdZsuo2kxAkAxt0+WPnvthmKgzVWXVmmdSmZJgzfffYz8d8N+ZyGYSpUQajpIgDxSTOnYeRuY2G04g8Q7EVq8sE7th4qj3IgC6hQJ1eXXni+PK/1gl7wi5jMWAUr4Z1MBE65uJ5xNxFoO+IdDLBp1OFgCCeZO1vr5Yf6X7Nay6SdAIksrki0wIgG8Ha+AfE+BvRRe8paHZDUGoGYUMGm0KNWk+WoW3i8csXtE7jgEUuHiStRlUxZiZEmI0hT4rcza56TiNXyPdzqZSwIEAzuDe1+Q5e8PLBShlXqU3daTEhlSwBClyVRWU3lipF9vDtIxHyPDalXwog1TpYEMNJJjTYTM/GY3xVPyzk5Lk4Uc2IB0iVsYYEsDqJIBEW855Y4FY3XxTtcW6C3X7saZtGV2Vhcbx6csSM/TNNyEq94tgtQAqGAVSDpNxExe8+eGilyg1taODEHZY+OMxyjGYIwwUOL6GrOBOp7fID8MQ6XEHl2E6mYbcgB9MR0gbQQZtG/wAMa6iTAEz7oBm+EoVz8Ekkx4jvO55nz+7GXiAsgDy6/nibw7glRoLnQp63PnhkyPCKKj2Q56tfC1QY4sk/gKFKr4dO5BjYW35RcC+NcqQVhtMMTPXcwfyGHipw6lAPdJ8ADP1xxPDaJ2pJH80D+2DsU/Cz9BVZlkxtytyMW8+vrjqta8SAd/MnyiYwyJwuh9gD+mfzx0HCaBNkBjaWI/HC6Exfwk/T6is9UEwzfK4vG/Ixyx6KjgA6SekdIIMTO/54bKvB8vvpA6+In6zjmvBaE2Q/6yPqcdoB+Fn6C3l6RqsAoYnaSBb15enx88N/BuEJSG9+ZicdsjkKdPaAOl2+ZjHSqbyAQOQH6+/FFClsXw4FB6pcnfvhbS23LG1R+Zv8f72xDQ8zjnxFp0ojS1QxERA5/PYYKx2zRkyqEXJk3h1cKKuZb2UUhB6dPM/iuFOhWNQkkS7kktE3MybbXODHbHMClSpZdf6mjnpP/tP+gYX8jUA0z6n7z64n1Lt6V2MEL5fL3ZAeooFyxjoAP1tjsaxkCb9fu5YjZ6lodkIO/SN745s15g+uMekqEMhm5q0yQPDUU/JgfwxafEO0WXqgU0lmaoDDArK6pJmCVtPLFW9ntDZhC5hFMmT+FjuZMG2+Lc4/nkSgHOkjvBbeQTBWBvCyMViqQUxG7T8KOXqmvTgrcuQbMpIv/UDMwT94wx9iONxpy7GFN6R6iCTT+HtL5SOQxDXj2XNIJqjQ0oTs0TKuAYuGj03wqKypVakpZUnVSPvJBm3mjbdQJ5429M45IvDL5ejJZLi1OPzLiaoPXoR+r43pVpBET1ET+QBwv9muNiuulyq1lOl15luTpJ9lheORkYNrUA9oFb+vxgf3xkyYnGTTW5dSUo2hc7QdmA01aAgndJgHrAmAT02PlzT8uTTbw2ZTfyItceXMYtkVVaxO9vEd/QAfdgL2i7NLXXVTOlwLEzcdGEeIeZMgfLEZYyGTH3Rr2c7VKV01jDsR4gANQi0n9RhxFBSLHwzMLF5uTb1NzfFQJwDOBT/BW2zEp/YjEzhfaStl/A6swi0Ex05G+3XE3il23FS8otcUlIhVBJ9AJA6fLlgXneGU2qB6iBmVWUFhrBViCwAO3si8H6xhJrdvWuwolWvu0kC4A9m3I2x4O3zSWKtI5SBNoI2v/vG84PsZ+N/Idhoq9mMtVbvTSam/fGpI8OqqwSXgbnw/GW6zhL4f2LFQcRpUKpBp1XpqWhi6vTplFZjeFI+s74JUP2gTpGixJks0ab2MHYf74BcE7UGnmc4wK/xKiuG1RPg93k1xGKx9pFPuG0Mvaf8AZVlqxapTfuHbQqKqDuxAhiVF2J3sREDHvar9mmRUJVRe6Wn4npgEiqNVOROoMPCrAXsWn1zJ9vWAhwsqZBJEiftH64D9r+Mvm2AV9BQQy05hlJDCTPxm/wB+KRm2g2hOrdkgWJp1dKcgSbddz1xmJdOg8C8+cC/3YzFdxbQtZHgLNd2hegwxZXK06Q8Cg+ZnGYzDybNOGCpSJauGPsT5AwMdhV02IVfgTjMZiRpPWzAiFNvT7sc1pneMZjMMhTvR8yQMauq+eMxmGRxuHMch5AY9CmJx5jMMcdqdSPL0/EbHElaeoSskecYzGYawtHhWBY2544dnFL1HqnYQE8pML+ZxmMxXGYup5jHtuKfGc/31Z3MxMKOirIX8/jiPTciNPLGYzHmybtgOubp94CfeFp6/r16YEBDMSZ/E8seYzCx7hYW4akeI35ib+XwIvfnbBBjN9tjY/L88ZjMc+GFGndqpO17Hn8rY555QRqU+NLr8Btt0/DHuMx0G1JUGSVHahmSVWtTsyiY21LYlfKLEHlbFk8A4qMxRDQJVRJvcESGuLel74zGY9brEqUu5n6f8zj2OeZrEmJIYiRiPS4jVDQYZY32/XyxmMxl7Gpm68RmdSz6+X3b8hgLnqIbqCf1bpj3GYKSGQLr0NBgr8Z/UY4VUA635kz/fGYzFaRzNakixPL78aNV5feMZjMKcczSB2A+WOwokeIeEESQNjF5j4DaDjMZgLc6cUZ3lbkyH1n8QfvOMxmMwNETN7NH/2Q==</t>
-  </si>
-  <si>
     <t>https://youimg1.tripcdn.com/target/100e11000000qc24l39FC.jpg?proc=source%2Ftrip</t>
-  </si>
-  <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBESEhgSFBUYGBgZGRgZGBkYGBoZGBgYGBgZHBkZGRkcIS4lHB4sHxgYJjgnKy8xNTU1GiQ7QDs2Py40NTEBDAwMEA8QHxISHj0rJCs0NjY0OjQ2NDQ0NDY2NDQ0NjE0NDQ0NDQ0NDQ0NDQ0NjQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIALcBEwMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAABAgADBQQGB//EAD4QAAIBAwMBBQYEBAQFBQAAAAECEQADIQQSMUEFIlFhcQYTMoGRoUKxwfAUI9HxUnKC4RUzYqLCBxYkQ5L/xAAaAQACAwEBAAAAAAAAAAAAAAAAAQIDBAUG/8QALxEAAgIBAwIFAwIHAQAAAAAAAAECEQMEITESQRMiUXGhBWGBFDMkNEJSkeHwMv/aAAwDAQACEQMRAD8A8PFECjFGK9gkcUEUYoxRimIEVIpoqRTAEUYqRRimIEVIpgKMUwFipFNFGKYhYqRTRRigBYqRTRRimISKMU0VIoAWKkU0UYoASKEVZjrx19KEVG96GJFSKeKEUwEipFPFSKAEihFPFSKQxIoRTxQigBYqRTRQikMWKEU0VIpUAkVKeKlIBYoxRijFAAiiBRiiBTAWKMU0UYpgLFGKaKMUCFijFNFGKYhIoxTRUigBYoxTRUimIEVIpoqRQAsVIp4qRQAkVIp4pWYKCTwMmk2krYJWXaPTG5cCDb4ncNwjgyPnSai1suMmO6xGMD5Vqdm+0+k09vaqOzEd5gEEn/UwJArP7V7e099gyhlbg7lyR/pJrzmH6nKWudxag1Sd913o609Ilp1TXUtznipFNFSK9IcoSKkU0VIpAJFCKeKkUDEihFWRQikBXFCKsihFAFcUIqyKEUAJFSmijSAkVIpoogUhixRimijFMBYoxTAUQKBCxUinijFMQkUYp4oxQAgFGKaKMUCEijFPFHbTArijFPtqRQAkUYpoqRRYhYoRTxWhoOzDdUtMCYgCTyPQRmqs2WGKPVN0izHCU3UVuP2bpbSWTlCsy5CAqNvxyfEY5/SsfU6bTu63rTBgSRhAi4BkgeMkV7W1YhANpBhZwFJ/DkDrCifWszV9mIQqr3ETdtCqu0bnzgRzJNeQwTjHUdTe13+Du5IyeJxS3o8/FCK6NRZ2NtkHjjxIBj71XFexhOM4qUXaZwZRcXT5KoqRVkUIqQiuKEVbFCKAK4oRVkUCKQFcVIp4oRQMSKUinioRQAkVKeKFAgxUAp4ogVGyQsUQKYCiBRYhQKaKYCiBRYCxRijFGKYgRUimijFFiEijFPFGKdgJFGKeKkUWAkUYp9tGKLEV7aO2nipFFgJFavZCEiC4VZbEd7pnJIj5VmxWn2XZJG7eyrkELA8M7o3dfGK5X1d/w/5Ru0P7v4NS1plAYm65ydsKpxHB7mMicRzWXr7f8ttl1uQQGRIHeE/gBP1rSNu2IVnfjg33EyPJ81wazTdww7rJGd7kAE/h3krXlk0dlpmAitvfcQxle8oIB7i9CTFPFRUK3LgLFjuXvNEmUQ52gDrVkV7LQfy8fY4Gp/dfuVxQirdtCK12UFUVCKsihFFgVxQirIpYoGIRQirCKEUAVxSkVaRSxQMrijTRUoAaKIFMBUAqFjABRAogUwFFgKBRimApop2ISKIFOBRiixCxUinAqbaLECKm2mijFFgLFECniptosBIoxTxRiiwK4o7aeKkUrEJFaXZabYcKWaGCrMTDIT5dR9K4Yrc7GYLbz/j/AD2/niuX9Xf8P+UbtB+9+A3tOzPm2O8F35B2fCIB6xPTwNcPat4my6tb7ggghgd0OABs8/0r0KXBLQDBzPgRWbr7JNsgdWX0w6sa8uuTtnlbKgXLgAgBkEeH8tMVcEJwOaCZ1N+3ncCHOD8Atpn86uYEEbSccnxkEQPLNet0WVeBGK3aS/HucLUwfitvZblTpBiQfTNCKs20pWuhZkEIpSKsioRRYFRFAirIoRRYyqKBFV6vVpbHeOYmOvhOK5LXais4XiVnIzLHA+lZZa3FHJ4be/x7FywycepI7iKEVYRSkVqsqEipTxRosCAUQKYCmAquxi7aIFMBTRRYCgUYogUwFFiFAogUwFNFOxCRRinC0YosBAKbbTAVIpWFCxRimijFFhQsVIp4o7aLCjV7L7OtuquwZiTMCAsBsSTzMHiea09P2WgvoAghbe7kkE7iBuEZIyf7Vz6D3i2hJW2FmS4JPU9Y28nxrs0F0EAtcZpUQQoJI55VJA+deYz6vL4rVura+1HZxYIdCdb0jj0+iQ6dO6g33gWmTgMwABkYgDp1+davula9yMIpHdETLDmIwAKS4be0BfeKeg3XAPuRXPp71sKrOkSsgEqSCf8AM33rLPLOb8zvuXwhGK2Q6IfduTM7iPhyQG6Y8PCpqUBtoJ/wSIHU5nHrSPetQQUBnAj3XyJ73NcDunvAGsSpQMD/AC85IIywH+HrncfDNPBYd7W199uAG4p3mIGYIgYjP6Cs9rFu3buMVTYHlpVj3UbgQZ4n61f/ABlncB7twIM95S3kAEeP7Vn9raq37tmVryju8e88eSAxEefgOtXRzSgmovmuCEsak02uDofSW2PeQAm6C0PBC9BBGATurE1KKHO0EDMAxIyRGPMGi2pQTGpjrDovM90SVU/UmvPau7cW4xLoxLbhsacYYwAT8xPWa26bXTxO5NtVwZs+nhJeVUzq7U13uWAgnAMgTzxnjwxVWh7QnatzBbhvwwfgycyRmuDV6xjDEElxO09QoAjjAG5vCrtHfJCkDazFQJAO1VlQI6YH50seuzeL13z25E9LDoo2yKBFWRXPq9QLaknmJE4BjpNeinkUIuUnSOXGDbpGV2lbtlyzieg6GZ58xgD0rk09wbySihlciBkbgCPHx6+VDVdolnLMOojbkbcGW8P6iunsrSo6mfxDd6HcYj7V5iCllzbPdvZnYfTGHGy5NS0+9Q0RPT7UxFGza2qFkmOp5NORXp8XUoJS5rf3ORPpcm48FUVKeKlTsiNFECiBRAqtSJUACmAoxTAU+oVCgUwFECmAo6hUCKMUQKIFFioWKMU4FECiwoWKMUwFMBSsKEijFOBUiiwoWKkU8VIosKO21YX3avkkqwAXbu3bsDf8SmBAzGR4Z1Lqfy12pvIKhVJC4MSdzA/CATHXiuDT6hgiqiFiOSQygzPwkrBj1rSL3ioKhVGMOsmcgkFbnHyryedvxZe7O/hS6F7INtH3yFEANuYHaQQdqqqAbSCAxJPUjpwNe14rFsKXlQouHuZncWCcwoMDxNS3avn8Sfl1mPhMD+tXXdLccchcREhgRPQtbqnct2Oe+t93RRt7uDvJYbAFJ2bTIeXA3MOF86XWlgIJg7YMGCQoMwRkTEfOrUsOCf5hkET/AMswY8NmKS5bdwsMpgfFwZBg4gj7UmMzydSlkIyIXbJRHYWw8dwGc7CYmOsYIJNDtW2RpypVQduYyu4gAgdSuOvjVu1wfiJ8MoPt7qubXm61psBpj8YkZyRCAU/cVGFpbDk2kg95Qz46MBiRBPoMgsORWDrGHvLlsSCzkd3E4ED8wPM+demXVXFYMUJIxgLwCDE7yYwOnSsBdCL9/UAgiChBIhg2DEdPhFXYscskqSK8klBWzFFxg4ZhG1QIOcEjvepJP1r0fY+jIHvGMkiAIgDMzHjP6VzdlpuF1nQSgKLjggEkD6j61voMD0FdPQaapLJL04MGpy+VxXqKRWT21c2lVZiFjc0QZE+B8P61sEVmdsaE3VBHKho+cf3+VbddjlkxVF/7KNNKMZeYwtQyBtyjuBIEgSxV2ndjJzW52ZbAQkRljgAADEYjHMn51hIj3LhtjqGHnOZk/wCn9K3uyLRS0FPRmH0MVzfp2OXiKT4VmzVSSg4+x1xSkVZFKRXf6jl0JFSmipRYUSKYUBTCqeosoIogVBTCnYUQCiBQFMKLFQQKMVBRp2KggUwFAUTSsOkIFQCgKIosOkIFNFBBJj9CfsM1o2OzgT3t7D/oRv8Azj8qqnqIQ5ZKOGUuEcEV0JorjCQhjxOB962bNlE+C08+LW5P196IrpQtztaf9f5F2FZZ66P9PyaY6X+74M2xpjtVSSCpyJESZkY5ENPy8q05wVjpgzHIwJ+dc1wHcJmd3XnpXS1vu7vqa4U5dU3L1bOnCNRS+xm+zHZ9yxYFt/wtc2y4Y7DcYpmT+EithWhZYjxHXHhVFjAJPgKe78CgfP06TUL3HR5n2b7Ku2NTq7rlSt5y6bSS3xuw3SAAYfxNb952A4ER9+n1prduTtGKZ3BhfGP0/oKJNt2wSrg8zrNA13Wae6SoW2LpPeg7mUAbR1E8/KtPUpFvdj8PoROeRTva75POTHlPP6UNUg91BIn+h8/lQ3wSPPNbRbr3AQSfdIomDtBulgBzyy/asuz2ili5fDqSS6nds3Y2JA5x16da1f8A7JPE/LJrr9n7mxtUe7tFy3JYkZ90nSDPFXYpNSu62KskU40edXti2Ve2GILliF2Ru3KAJIGPrWza9p9CUCu5JAySjzP/AOaL9qJ7u6oRTudzPXLCPyFbfZGlOq/mPZtLb4nYGZ4jA8u7yaujk32ZW8e255Vu1NMzHbcWCTHIwTjkVa99F5dB6sJ+nNbnbnsu7lRYt2+D3oVCCIjdA7wx04zWPZ9h9UJ3van/ADNIA6Rs/WtkdfkTp1RnlpovgxtFatpfu3N6d4jbLKJlVLEEnOZH1q/S6hQjsSCPeXeCDgXGjjyitmz7Iu7MnvrYKbQTkg7gTj0muTs32Wuvp2db6KouaiVIMtsuup+R2feiOqSXl+/H3CWFvn7fBiaTtRjcIciOgjz/AKDjzFa4YESKwrGjd3deGVVIPqSOR1x0rX0KOLY3zu6gmeMc1q0mTJVST77sozQit4l1SjFSttlFFamnFZtv2gQYOnT4YncZBmS/OT5Y8MVy6ntZmMICqzgmC0efT6CuZ+vxpXuafAZu7gOSKsgjBGfDzryDuCJdjPWc+gk/n51amve3w+YMBgGXI8GkHBqlfU278pP9P9z1U1dZtM7bVGfp+dYul19tkQe+Cll75ZHfa8fCIZeSQJr0HavtXqNOwtrdtsogEpZyq5knc5lgBxjMVa/qCrj5D9MvUu0dnTi6tm+zh3MLt7qKACSXZx5YjB8a9CvY2iSD7yf8zpE5xivD+0Hbtq4iMO/d2De+MxuIQpEA97PoKx7N9iPjRTBgNamSpBgFRnEjwrLLVyk27otjhjHarPoXaXY9oKXsXEMSShdTMf4SOvlXny2KyNF2nb3EXrZZWYyVhGC7QFWIg8c+Bp37XtgkBWKyQDI46Vfg10Umpy+CrJhTdxRrBqO6sT/jBHKj0k49cVavbCQJUz4D/er1r8D7/BV4MvQZr/ahuG1p7jlRBm3bUAbv8TEEA+prWs+zvbbiW1JTydxP/YhrzvbGq/iUS0ZFu2zO6g/8xjG3dHUKIHrTdne2d+1bFpHcKFIXd3iBOILyYHTwHyjlZc6cm4q1ZtgvKrPTL7Gdpt8evYf5XuEeXRawO1PZ7tO0x23tTdQMV3o905HQqGJFc2p9rLtxhuvOSslYcLEiPwxmK9N2b7atatkOgcksxdjEyZggDwqpZm+VRPY0OyLNy3p7SXiwdV7+8kvMlu9OZg9a0tPfB7uZjrXB/wAZs3HQlgGvlwgEkHYJOYxjx8a2dLG3OcDpVTTbsuTVFLu20/fpTadzt4PT9/vxqy6oIxA+3jVD3Bb/AJjNtRUJYn4VVRuLE+gqPS+olaodWeX9e76bF/8ALdXObqpAWZ2yfCcY/fjWR2P7baTVXxYQXFYyEZwoVyMxhiVJgxP54rSuyT3RBgRtiY61KSaYotMDtuIgEDr9Dz4ZqjU3gbbKdwKjwxmP612WrkgkiJzHMGuHtKGWCYg+HIn19aVbIZjM2DjwgfpXR7J2bOo1Gpt3E3RsuASREIEIlSPpXNqe0rK3005ne6kiBK/iiT4nafpVXZGpe3d1CrZ37hbUtKgJIKid3iY+lXR2e/oQlujcXTaT+G1AFtC6vqtp2yyqjuEIJ8FC9a1bHaIBtW7SG2t229xEKImwpHdZNp2klvlXl2s37dp2/h1IZHl9wIRQ7iRIBkEHicAeg7wuuMRpLawIG665IB6DGBjgVOLtEGje1CWrgdHcqRcO2LhRowOhB25NeX7SS5bulhpbjW0JJLM7h0GSSxcjjw/2rut2u0cpstWwwIYyXgMCCdsAtjxIrXsqV0/urlxXco+doTcM5CScAEDmoSlFOnzVklF1ZlxvF0oioQLARbkwgO9GnYZB7sCGPQ+g9k9NbGkm6yb/AHl8jLCAbjwDJzn7R61V2fp7/vrirfIIiTsUyPeXRxIiIJ+dP2TptQbCFb4UNuYKbSN8Tsx5YE8z86IZYyXlFKDXJy6TQ2jqb5ulEG22UCsFQljcLKs5gAr4VwsiqJKvxnInr0itLtHR3DcDXHDHbhggSACe7G4zyTPl5VldtAqr3ACQqs0bomFJI4PNanqMjqnXsypYYrlFX8XY/wATDy7uPtUri0Nt7lpLgUAMAQN3E/KpVfjZvV/5J9GP0PNnOOmfp5/vrQ2mI+8evShHdgiDHI/Ska4AuennJP2rPRABbk8DoR+tXb0C74OPAEcHJ70jBqvTkOePKYxXPqEdAFJldxA9ZkyPCpJW6BGtZTcEZngfFyQTiRx8J4xzmtnW9qWyJVyz92XYYVNwO1FHJkbt32rDtWrfupCQPHq79dvlP2qvTWirlioO1ZAJG3wg0NVtZKnykaN/VOCXVVG7naIzGSRwD16DyrPtatywnMST5DBqxw9w5/0iQJnM5wABROhIB4kZieRiOuMT9Kj1RWzH0tqy3f7zMieveBMfuKre8FExGfED5zV3vyqqgg/CdmJAjvSfI+NZ+qBODnxmdw/c1Gk2QJduGSxaevr6z510LcChV5OOuCev5VzKB0k+AkZ8vOr00gZgxaD08Dt5H0ptJ8gM1yQVgZ4zn9KqTs53DE9ADuGYyP8AaupCgARIOcsMsYJJjzEiu5LZJLMdqCdoXAgjG4E+pmkn08Dsxk0rnulABiO5tE+M8muy2RKgERBRl8RwRHM1YdS1xnghWUBV3cNEZY+g+9X252blYb1UmcbZ2kiBMzuzHgCKG2C3PV9k20t6fSh070wsn4GBJ+uIr1OjbkfOPD1rD7Css+ns+8ALDcSYGG3Nn6Vfqe20tSvxMcLAngruLEHjPHl0ob4LuEbCzHe/f0rN7dtbtLfQNANm4sR4owB8f7V5v/3LfO8zElSoiCJxAVuVMk/0xW37P6oXbZVmBI3qZ/EZmVzLCGGfWo9VyHGSex5T2Z7HtWtWj8hWaNysCCWEGY5Efc17B3/mShjuj6/v8qu0WiCncYkO56TG8x04ikuKA3BgqcgemSalJ+o/YdOBHz9IP6xXNrQoB3LIIG3IGRP24ruVZFZ/ajKUKkGQD0PIzzSfYEeU2qO0t+DNnaoJyCQx3fQEfOtXsO+lu9qrj/AqaUuTEAB3knwEA1XqtPLK691gBkATHUHrwTSdmaYXH1dtiQHt6dWI5g3HB29OtWpkaOrs7tgXuz77x8Ki2CYjvK2fMb3Y/OupvbDTkrcJMA7gYaCFTYB8Pi7H1FcXYmksr2Td2DJsq7s2d1w2VeR/lLgDw21vjs7Se6S6dOgchQiFFkFyIUiMcyfCDTi1v7kX2G7D7Q/iVuXh8LMQnPwqirwf+oNWPrtZpmuLeYqLllnQAuoaGW6hxMkd4ek16TSPb3PbtKAtslDAAG4puaIx+IfOaydTorYYWzpkcXPeF7p2BkLb2GCJbgCQaoteM/Ym/wDz+SvsTUrcuXLg4ZFfno13UEZ61f2Klv3WnuFFLe6G1zEoGWSPnxXBoimne6kwFs7F8ytzVQMdYrV7MustuxbUKVFpNxLwwhAAAsZ46kUtP/VX/bDyVtZkdu9trbvBAqtC8kkcqYGOk1l6rtzT3Ea3cUoj7kYh5ZVeBIEGSFLdOgrS9pVnUL5qP1rwV0Xb1sMTO1d8bee8ykCPSr4TdbdhTikk+7NO1q9CqhVuXgowJuIMfK2aleXJI6EeqmpV3iv0+DPR1NpmRe9iTkj5D85z51RqrI2zIEiRB6VqgsRDdc/6fD6UiWVPCgDyxxMetZFkrdjo57dmFCJMcn5jkn99M0E0pJ3RM9CYgHkzHOPyrrZRO3bHy5py6nA6eGBnxil4kuwdgsnAAxwMjur4+pIH18qrFsAjcABPOI/fH1p2KAQfSPMx9+KRGAHBB8T19D15oWSQWOwIXeBJZgB1gEwPl1ptOcb2fYgjcOs7QBg/lXO15maMjjnr6CPWrbNwBwSApJAMzxwdoHqc+FDbHYhss4L22CgEwWkSqwvI8zSPbI3u0Egy8xmfP+lPdWztgTIIIIJiJkgjg5mq7t0cxMkkqfOOPAYFTi7CirftZhtDYWIMmSc58RNaKWWjcFGWwSQIkflyJrhuG1jZb2mTMs7SZw0FjGBXWwbYELfEFG7dyJnw8zSkCR1aXRKuSdzTuOMQegzng0l+2TO07dzDaclduCcnjk/uKp/iCq7c9PEwYMjPQyPSBTLdnuHIJECTI4AgjEkmfpmBVdvkQdTbW3bdWXex2ZE8uDgDpG0fUeNcttzbQrtIJBJMw0gkDcDkCZrpTUgvO1mAPiTx0mBA/foN63AN67mjAb4txPlmJPXxqSe249j3nYnaVpNNaLsAShfbkmBuJiOeDXk9VcTc7oXCsW7olRHDERO7gjj6TUva1P4e2gLhreJEKhQkg4k5Aj13EZzWYrlwcyAB3YO8E+AmIG5eB6xSe/A5SsuuaokTAPQzgpA7vHOTPp4c119l32W4FRzClSCzhZaGMFwRxHngnOYrP1GphVaCQTtgKJMrmMEYA/OuXR2yFL91gSwwJg4z3Tic+MU62I2fSr3tFZWQklju3SMDBZfvjMViP7R3NmwmSveDqTkADBA7rSf1rzhc7WJJhOY8cncQ3y+lc76rCyygcjrkDkjgcxHqfGlTluS6me+7E7dVki80GAQSIlTOTxkERAHSuzVPbuLvVwQfAgyf68V86t6xiw2kAEQ4boONwgYJBI8pNdT6y2pZklcyogEKT1k/Pp+KiTlxRKMqPWuFGZ8ug6xXnNT2x7i5c2AMLltFmT3djs4IA59KxzrHLgsQIBCxMQYO3PSc+XSqrl52JY7SSeCogrwAfqRVib9A6jX0N7U29I1oK2xiio3d2vmH24lpCqPIHpV79oa4sHi58ZZF2BcQUA3bArgzMzWDc1Lj4BsXGASeLeycnrzHE5Fej7H7buJsKIQEARFLAKonMlhknknkk9Jp9XTZC2bnZdrV6fR3ffWnV3Yy7EGTc7pfakkQCPDjpXPqfapELW2V3YhQjK0BH27WBByZM9PxVR237S6k23QOQrclAFZVPIEEwPMEn0rkfUdlLaJSyxuIFAksvfJwZ3Hqd3zNJSi31L2JqSqmb2uMNqnCzFi4wOMAO5DD5PyK79S+qQAJprj9xVDBkAUgEHDETiK8lY7RZbb2tgVTZezEudiuQ0S2ccAHpXTd/wDUDUW9qG2NxO7dJgqHkqJHw4K+nnRiUVtFhKXUzg9rO3P/AJBW0oXYdrEEGSAdwiIkHHXiuTsq7KnaPhlccc7pgnrJPzrGvWLtxmuLbYb33KI7sMWPd3cjIyPCuvsR7i3fdkE7hxI5Ejj9/rUlH0GpO1fBj6xQbjbo3bjOOs1K0bKMo2tbYMCwI2HB3HHxVKsqfoV39y5rsnZ55nw5+dD3kkgL0Hh1/tUqVkaQh0AGfHn1IwKm7GPM8ccfXijUqIilkOBI5zA5HMfvxpiZEL0jwgA/epUqTAQ3yF+Z+k1S9zOc+Y5+9SpVsUPsVqQf9/36UWMesfapUqXcZ2WCq294PeI8OuT/AEpmAJyvJOOeOnMdPy5qVKqlyRZSLhJBOJ7sYgBnxAA8OaOpvwCBO494DnMxM46njyoVKkktgEsNtXY3IksSS0DBP5dOv3utWgCTABMMQMYwQMecGpUpS7gWXrzYZmU7ZnByDniMn18aa3eJAaZ8QJEcsVB6jzxz5RUqUmlQFJIYgklSxMlRmYIByeYx9KVEffu3syNuyYXvLHxAHPESBmpUp9gOhyWIbBBAGcgTMNnJI4rmu6VIYCfwtI429BBz4n+wqVKIDEtnaNxIMsDO3KmJxPPP9qN8kwTmZE+JBMzNGpU3yBUT0NAtHU+v50KlMl6j78Yqy3eIkD7wfnUqUpJCLxqhALmYIjE58B1FIubnMDuRzgrgfejUquSSWwjstXGFuCWYkypmGJzJJmP7U962GRS9sEERMhWwc5XPXxqVKgtmSRxaxzsW0rFCOssSFP4QZwMmspNKQdwOZ54jx/WhUrVCchchuXtQST7xvmZNSpUq7xJEaP/Z</t>
   </si>
   <si>
     <t>https://cdn.hisour.com/cdn-cgi/imagedelivery/PJiouRWxFR9baI5eaOAFCA/www.hisour.com/2019/11/Palace-of-the-Marquis-of-Santa-Cruz-Ciudad-Real-Spain.jpg/w=960</t>
@@ -1467,6 +1461,13 @@
   <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/2/24/Santa_Maria_della_Salute_in_Venice_001.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youimg1.tripcdn.com/target/1003050000000pw2bA5D8.jpg?proc=source%2Ftrip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youimg1.tripcdn.com/target/0105g120008j9og1mA7DA.jpg?proc=source%2Ftrip</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1525,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1533,6 +1534,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1851,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2BC2C5-574B-4153-8F69-7B7ECA9C0D99}">
   <dimension ref="A1:E337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
-      <selection activeCell="D329" sqref="D329"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2641,7 +2645,7 @@
         <v>4</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>277</v>
@@ -2658,7 +2662,7 @@
         <v>4</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>278</v>
@@ -2675,7 +2679,7 @@
         <v>3.5</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>279</v>
@@ -3321,7 +3325,7 @@
         <v>4</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>315</v>
@@ -3338,7 +3342,7 @@
         <v>4</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>316</v>
@@ -3355,7 +3359,7 @@
         <v>4.5</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>317</v>
@@ -3372,7 +3376,7 @@
         <v>3.5</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>307</v>
@@ -3389,7 +3393,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>308</v>
@@ -3408,8 +3412,8 @@
       <c r="D112" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>318</v>
+      <c r="E112" s="3" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
@@ -3426,7 +3430,7 @@
         <v>55</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
@@ -3443,7 +3447,7 @@
         <v>55</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>320</v>
+        <v>469</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
@@ -3460,7 +3464,7 @@
         <v>55</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
@@ -3477,7 +3481,7 @@
         <v>55</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
@@ -3494,7 +3498,7 @@
         <v>55</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
@@ -3511,7 +3515,7 @@
         <v>55</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.4">
@@ -3528,7 +3532,7 @@
         <v>55</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.4">
@@ -3545,7 +3549,7 @@
         <v>55</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.4">
@@ -3562,7 +3566,7 @@
         <v>64</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.4">
@@ -3579,7 +3583,7 @@
         <v>64</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.4">
@@ -3596,7 +3600,7 @@
         <v>24</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.4">
@@ -3613,7 +3617,7 @@
         <v>24</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.4">
@@ -3630,7 +3634,7 @@
         <v>24</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.4">
@@ -3647,7 +3651,7 @@
         <v>30</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.4">
@@ -3664,7 +3668,7 @@
         <v>30</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.4">
@@ -3681,7 +3685,7 @@
         <v>38</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.4">
@@ -3698,7 +3702,7 @@
         <v>38</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.4">
@@ -3715,7 +3719,7 @@
         <v>38</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.4">
@@ -3732,7 +3736,7 @@
         <v>38</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.4">
@@ -3749,7 +3753,7 @@
         <v>41</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.4">
@@ -3766,7 +3770,7 @@
         <v>41</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.4">
@@ -3783,7 +3787,7 @@
         <v>41</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.4">
@@ -3800,7 +3804,7 @@
         <v>45</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.4">
@@ -3817,7 +3821,7 @@
         <v>45</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.4">
@@ -3834,7 +3838,7 @@
         <v>45</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.4">
@@ -3851,7 +3855,7 @@
         <v>45</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.4">
@@ -3882,10 +3886,10 @@
         <v>4.5</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.4">
@@ -3899,10 +3903,10 @@
         <v>4</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.4">
@@ -3916,10 +3920,10 @@
         <v>4.5</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.4">
@@ -3933,10 +3937,10 @@
         <v>4</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.4">
@@ -3950,7 +3954,7 @@
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>286</v>
@@ -3967,10 +3971,10 @@
         <v>4</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.4">
@@ -3984,10 +3988,10 @@
         <v>3.5</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.4">
@@ -4004,7 +4008,7 @@
         <v>55</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.4">
@@ -4021,7 +4025,7 @@
         <v>55</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.4">
@@ -4038,7 +4042,7 @@
         <v>55</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.4">
@@ -4055,7 +4059,7 @@
         <v>55</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.4">
@@ -4072,7 +4076,7 @@
         <v>64</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.4">
@@ -4089,7 +4093,7 @@
         <v>64</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.4">
@@ -4106,7 +4110,7 @@
         <v>24</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.4">
@@ -4123,7 +4127,7 @@
         <v>24</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.4">
@@ -4140,7 +4144,7 @@
         <v>24</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.4">
@@ -4157,7 +4161,7 @@
         <v>24</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.4">
@@ -4174,7 +4178,7 @@
         <v>24</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.4">
@@ -4191,7 +4195,7 @@
         <v>24</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.4">
@@ -4208,7 +4212,7 @@
         <v>30</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.4">
@@ -4225,7 +4229,7 @@
         <v>30</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.4">
@@ -4242,7 +4246,7 @@
         <v>30</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.4">
@@ -4259,7 +4263,7 @@
         <v>30</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.4">
@@ -4276,7 +4280,7 @@
         <v>38</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.4">
@@ -4293,7 +4297,7 @@
         <v>38</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.4">
@@ -4310,7 +4314,7 @@
         <v>38</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.4">
@@ -4327,7 +4331,7 @@
         <v>41</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.4">
@@ -4344,7 +4348,7 @@
         <v>41</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.4">
@@ -4361,7 +4365,7 @@
         <v>41</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.4">
@@ -4378,7 +4382,7 @@
         <v>55</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.4">
@@ -4395,7 +4399,7 @@
         <v>55</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.4">
@@ -4403,7 +4407,7 @@
         <v>34</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C195" s="1">
         <v>4</v>
@@ -4412,7 +4416,7 @@
         <v>55</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.4">
@@ -4429,7 +4433,7 @@
         <v>55</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.4">
@@ -4446,7 +4450,7 @@
         <v>55</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.4">
@@ -4463,7 +4467,7 @@
         <v>24</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.4">
@@ -4480,7 +4484,7 @@
         <v>24</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.4">
@@ -4497,7 +4501,7 @@
         <v>24</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.4">
@@ -4514,7 +4518,7 @@
         <v>24</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.4">
@@ -4531,7 +4535,7 @@
         <v>24</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.4">
@@ -4548,7 +4552,7 @@
         <v>24</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.4">
@@ -4556,7 +4560,7 @@
         <v>36</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C209" s="1">
         <v>3</v>
@@ -4565,7 +4569,7 @@
         <v>24</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.4">
@@ -4582,7 +4586,7 @@
         <v>24</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.4">
@@ -4599,7 +4603,7 @@
         <v>24</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.4">
@@ -4616,7 +4620,7 @@
         <v>30</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.4">
@@ -4633,7 +4637,7 @@
         <v>30</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.4">
@@ -4650,7 +4654,7 @@
         <v>38</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.4">
@@ -4667,7 +4671,7 @@
         <v>38</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.4">
@@ -4684,7 +4688,7 @@
         <v>38</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.4">
@@ -4701,7 +4705,7 @@
         <v>41</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.4">
@@ -4718,7 +4722,7 @@
         <v>41</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.4">
@@ -4735,7 +4739,7 @@
         <v>41</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.4">
@@ -4752,7 +4756,7 @@
         <v>41</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.4">
@@ -4769,7 +4773,7 @@
         <v>45</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.4">
@@ -4786,7 +4790,7 @@
         <v>45</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.4">
@@ -4803,7 +4807,7 @@
         <v>45</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.4">
@@ -4820,7 +4824,7 @@
         <v>45</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.4">
@@ -4837,7 +4841,7 @@
         <v>45</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.4">
@@ -4854,7 +4858,7 @@
         <v>49</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.4">
@@ -4871,7 +4875,7 @@
         <v>49</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.4">
@@ -4885,10 +4889,10 @@
         <v>4</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.4">
@@ -4902,10 +4906,10 @@
         <v>3</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.4">
@@ -4919,10 +4923,10 @@
         <v>3</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.4">
@@ -4936,10 +4940,10 @@
         <v>4</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.4">
@@ -4956,7 +4960,7 @@
         <v>55</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.4">
@@ -4973,7 +4977,7 @@
         <v>55</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.4">
@@ -4990,7 +4994,7 @@
         <v>55</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.4">
@@ -5007,7 +5011,7 @@
         <v>55</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.4">
@@ -5024,7 +5028,7 @@
         <v>64</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.4">
@@ -5041,7 +5045,7 @@
         <v>64</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.4">
@@ -5058,7 +5062,7 @@
         <v>64</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.4">
@@ -5075,7 +5079,7 @@
         <v>24</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.4">
@@ -5092,7 +5096,7 @@
         <v>24</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.4">
@@ -5109,7 +5113,7 @@
         <v>24</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.4">
@@ -5126,7 +5130,7 @@
         <v>30</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.4">
@@ -5143,7 +5147,7 @@
         <v>30</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.4">
@@ -5160,7 +5164,7 @@
         <v>30</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.4">
@@ -5177,7 +5181,7 @@
         <v>30</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.4">
@@ -5194,7 +5198,7 @@
         <v>38</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.4">
@@ -5211,7 +5215,7 @@
         <v>38</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.4">
@@ -5228,7 +5232,7 @@
         <v>38</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.4">
@@ -5245,7 +5249,7 @@
         <v>38</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.4">
@@ -5262,7 +5266,7 @@
         <v>38</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.4">
@@ -5279,7 +5283,7 @@
         <v>41</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.4">
@@ -5296,7 +5300,7 @@
         <v>41</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.4">
@@ -5313,7 +5317,7 @@
         <v>41</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.4">
@@ -5330,7 +5334,7 @@
         <v>45</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.4">
@@ -5347,7 +5351,7 @@
         <v>45</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.4">
@@ -5364,7 +5368,7 @@
         <v>45</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.4">
@@ -5381,7 +5385,7 @@
         <v>45</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.4">
@@ -5395,10 +5399,10 @@
         <v>3</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.4">
@@ -5412,10 +5416,10 @@
         <v>5</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.4">
@@ -5429,10 +5433,10 @@
         <v>4</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.4">
@@ -5446,10 +5450,10 @@
         <v>3</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.4">
@@ -5457,7 +5461,7 @@
         <v>52</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C280" s="1">
         <v>5</v>
@@ -5466,7 +5470,7 @@
         <v>55</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.4">
@@ -5483,7 +5487,7 @@
         <v>55</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.4">
@@ -5500,7 +5504,7 @@
         <v>55</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.4">
@@ -5517,7 +5521,7 @@
         <v>55</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.4">
@@ -5534,7 +5538,7 @@
         <v>55</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.4">
@@ -5551,7 +5555,7 @@
         <v>64</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.4">
@@ -5559,7 +5563,7 @@
         <v>53</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C290" s="1">
         <v>3</v>
@@ -5568,7 +5572,7 @@
         <v>64</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.4">
@@ -5585,7 +5589,7 @@
         <v>64</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.4">
@@ -5593,7 +5597,7 @@
         <v>54</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C294" s="1">
         <v>4</v>
@@ -5602,7 +5606,7 @@
         <v>24</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.4">
@@ -5610,7 +5614,7 @@
         <v>55</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C299" s="1">
         <v>4</v>
@@ -5619,7 +5623,7 @@
         <v>30</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.4">
@@ -5627,7 +5631,7 @@
         <v>56</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C301" s="1">
         <v>4</v>
@@ -5653,7 +5657,7 @@
         <v>41</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.4">
@@ -5670,7 +5674,7 @@
         <v>41</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.4">
@@ -5678,7 +5682,7 @@
         <v>57</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C308" s="1">
         <v>4</v>
@@ -5687,7 +5691,7 @@
         <v>41</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.4">
@@ -5704,7 +5708,7 @@
         <v>49</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.4">
@@ -5718,10 +5722,10 @@
         <v>5</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.4">
@@ -5729,16 +5733,16 @@
         <v>60</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C317" s="1">
         <v>5</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.4">
@@ -5752,10 +5756,10 @@
         <v>4</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.4">
@@ -5769,10 +5773,10 @@
         <v>4</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.4">
@@ -5786,10 +5790,10 @@
         <v>4</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.4">
@@ -5806,7 +5810,7 @@
         <v>55</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.4">
@@ -5814,7 +5818,7 @@
         <v>61</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C322" s="1">
         <v>5</v>
@@ -5823,7 +5827,7 @@
         <v>55</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.4">
@@ -5840,7 +5844,7 @@
         <v>55</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.4">
@@ -5857,7 +5861,7 @@
         <v>55</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.4">
@@ -5874,7 +5878,7 @@
         <v>64</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.4">
@@ -5891,7 +5895,7 @@
         <v>24</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.4">
@@ -5908,7 +5912,7 @@
         <v>24</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.4">
@@ -5916,7 +5920,7 @@
         <v>64</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C331" s="1">
         <v>4</v>
@@ -5925,7 +5929,7 @@
         <v>30</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.4">
@@ -5933,7 +5937,7 @@
         <v>64</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C332" s="1">
         <v>4</v>
@@ -5942,7 +5946,7 @@
         <v>30</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.4">
@@ -5950,7 +5954,7 @@
         <v>64</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C333" s="1">
         <v>5</v>
@@ -5959,7 +5963,7 @@
         <v>30</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.4">
@@ -5976,7 +5980,7 @@
         <v>38</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.4">
@@ -5993,14 +5997,16 @@
         <v>41</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E318" r:id="rId1" xr:uid="{11516621-A74D-46BE-A3CF-DE00ECF7FAD3}"/>
+    <hyperlink ref="E112" r:id="rId2" xr:uid="{4137A055-47B0-4305-AC5F-96059F4CB979}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/data/Spain_Category.xlsx
+++ b/src/data/Spain_Category.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjh57\..code\pythonProject\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjh57\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FA676A-F915-43FF-BE5E-EBAF8FCBA1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBFE333-B0F6-49BE-9F53-DD4C35CFF6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="-105" windowWidth="29010" windowHeight="15810" xr2:uid="{840C3334-2357-4C08-81C4-DABFB40EC72E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{840C3334-2357-4C08-81C4-DABFB40EC72E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="702">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,9 +238,6 @@
     <t>마드리드 궁전 Palacio de la Bolsa</t>
   </si>
   <si>
-    <t>살라망카 경기장(Estadio Santiago Bernabéu)</t>
-  </si>
-  <si>
     <t>유럽축구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,9 +245,6 @@
     <t>메트로폴리탄 스타디움(Metropolitano Stadium)</t>
   </si>
   <si>
-    <t>베르나베우 경기장(Estadio Wanda Metropolitano)</t>
-  </si>
-  <si>
     <t>레알 마드리드 축구 클럽 박물관(Real Madrid C.F. Museum)</t>
   </si>
   <si>
@@ -920,13 +914,7 @@
     <t>https://media-cdn.tripadvisor.com/media/photo-s/09/af/ca/4f/caption.jpg</t>
   </si>
   <si>
-    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/09/19/44/3b/tour-bernabeu.jpg?w=1200&amp;h=-1&amp;s=1</t>
-  </si>
-  <si>
     <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/16/a0/7d/c2/wanda-metropolitano.jpg?w=1200&amp;h=-1&amp;s=1</t>
-  </si>
-  <si>
-    <t>https://res.klook.com/images/fl_lossy.progressive,q_65/c_fill,w_1295,h_834/w_80,x_15,y_15,g_south_west,l_Klook_water_br_trans_yhcmh3/activities/x5smrggpdtqeu3rs7fzf/%EB%A7%88%EB%93%9C%EB%A6%AC%EB%93%9C%EB%A0%88%EC%95%8C%EB%A7%88%EB%93%9C%EB%A6%AC%EB%93%9C%EC%82%B0%ED%8B%B0%EC%95%84%EA%B3%A0%EB%B2%A0%EB%A5%B4%EB%82%98%EB%B2%A0%EC%9A%B0%EA%B2%BD%EA%B8%B0%EC%9E%A5%EB%B0%95%EB%AC%BC%EA%B4%80%EC%9E%85%EC%9E%A5%EA%B6%8C.webp</t>
   </si>
   <si>
     <t>https://res.klook.com/images/fl_lossy.progressive,q_65/c_fill,w_1295,h_788/w_80,x_15,y_15,g_south_west,l_Klook_water_br_trans_yhcmh3/activities/s0gcfgx2iy4gi3do8xga/%EB%A7%88%EB%93%9C%EB%A6%AC%EB%93%9C%EB%A0%88%EC%95%8C%EB%A7%88%EB%93%9C%EB%A6%AC%EB%93%9C%EC%82%B0%ED%8B%B0%EC%95%84%EA%B3%A0%EB%B2%A0%EB%A5%B4%EB%82%98%EB%B2%A0%EC%9A%B0%EA%B2%BD%EA%B8%B0%EC%9E%A5%EB%B0%95%EB%AC%BC%EA%B4%80%EC%9E%85%EC%9E%A5%EA%B6%8C.jpg</t>
@@ -1463,18 +1451,729 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://youimg1.tripcdn.com/target/0105g120008j9og1mA7DA.jpg?proc=source%2Ftrip</t>
+  </si>
+  <si>
     <t>https://youimg1.tripcdn.com/target/1003050000000pw2bA5D8.jpg?proc=source%2Ftrip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://youimg1.tripcdn.com/target/0105g120008j9og1mA7DA.jpg?proc=source%2Ftrip</t>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페인 바르셀로나에 위치한 고딕 양식의 대성당으로, 안토니 가우디의 건축 작품으로 유명합니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나의 중심에 위치한 공원으로, 휴식과 레크리에이션을 즐길 수 있는 아름다운 공공 공간입니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나의 역사적인 중심지로, 중세 시대의 건물과 현대적인 상점, 레스토랑 등이 혼재하는 매력적인 지역입니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나의 역사와 문화를 소개하는 박물관으로, 다양한 전시물과 아티팩트를 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나의 대표적인 건축물 중 하나로, 안토니 가우디가 디자인한 현대주의 양식의 건물입니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나의 도시 공원으로, 안토니 가우디의 창작물로 유명한 곳으로서 독특한 건축물과 아름다운 경치를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나의 현대 예술을 전시하는 박물관으로, 다양한 작품과 전시물을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나의 유명한 실내 시장으로, 신선한 식품과 로컬 델리카테센, 생선, 과일 등 다양한 먹거리를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나의 대표적인 음악 극장으로, 현대 양식의 건물과 화려한 내부 장식으로 유명합니다.</t>
+  </si>
+  <si>
+    <t>카탈루냐 지역의 미술 작품을 전시하는 국립 미술관으로, 고고학, 중세 예술, 현대 미술 등 다양한 시대와 장르의 작품을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나의 시립 미술관으로, 고대부터 현대까지의 다양한 예술 작품을 소장하고 있으며, 특히 로마와 고딕 시대의 작품이 유명합니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나의 중심에 위치한 주요 역으로, 대중 교통의 중심지이자 유명한 람블라스 거리와의 연결점입니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나의 디자인 박물관으로, 패션, 그래픽 디자인, 제품 디자인 등 다양한 분야의 디자인 작품을 전시합니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나의 예술 전시와 문화 행사가 열리는 장소로, 다양한 예술 작품과 전시물을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>현대 예술가 조안 미로의 작품을 전시하는 박물관으로, 그의 대표작과 창작 과정을 살펴볼 수 있습니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나의 주요 오페라하우스로, 다양한 오페라, 발레, 공연을 즐길 수 있는 문화 장소입니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나의 도시 역사와 문화를 소개하는 박물관으로, 다양한 전시물과 역사적인 유적을 살펴볼 수 있습니다.</t>
+  </si>
+  <si>
+    <t>안토니 가우디의 건축물 중 하나로, 독특한 외부 디자인과 아름다운 내부 장식으로 유명한 바르셀로나의 관광 명소입니다.</t>
+  </si>
+  <si>
+    <t>현대 예술과 문화를 전시하는 센터로, 다양한 전시물과 문화 행사를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나 축구 클럽인 FC바르셀로나의 역사와 유적을 소개하는 박물관으로, 선수들의 트로피와 기념품 등을 볼 수 있습니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나 올림픽이 개최된 장소로, 다양한 스포츠 경기와 이벤트가 열리는 경기장입니다.</t>
+  </si>
+  <si>
+    <t>FC바르셀로나의 예비 팀인 FC바르셀로나 B팀의 홈 경기를 개최하는 경기장으로, 젊은 선수들의 경기를 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나 근처 몽세라트 산에 위치한 수도원으로, 아름다운 전망과 종교적인 중요성으로 유명합니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나 근처에 솟아있는 산으로, 화려한 암벽과 독특한 지형으로 유명하며, 등산, 하이킹, 자연 감상 등을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나 주변에 위치한 자연 공원으로, 다양한 식물과 동물 종류, 아름다운 경치를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나 주변에 있는 자연 공원으로, 산악 경치와 하이킹, 스키 등 야외 활동을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나 근처의 동굴로, 아름다운 석순과 석영 결정으로 장식된 동굴을 탐험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>스페인 북동부 지중해 연안의 아름다운 해안 지역으로, 탁월한 해변과 작은 항구 마을들로 유명합니다.</t>
+  </si>
+  <si>
+    <t>카탈루냐 지역의 작은 해안 섬으로, 다이빙과 스노클링을 즐기기에 이상적인 명소입니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나 남쪽에 위치한 해안 지역으로, 아름다운 해변과 해안 경치가 특징입니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나 근처에 솟아있는 산으로, 독특한 암벽과 경치가 아름답습니다.</t>
+  </si>
+  <si>
+    <t>스페인과 프랑스 사이에 위치한 산맥으로, 등산, 하이킹, 스키 등 야외 활동을 즐기기에 이상적인 지역입니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나의 해안 지역으로, 아름다운 해변과 해안 보행로가 있는 인기 명소입니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나의 언덕으로, 몽주익 성과 경치가 아름답고, 다양한 문화 시설과 공원이 자리하고 있습니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나의 중요한 상업 거리로, 고딕 양식과 모더니즘 양식의 건물들과 고급 브랜드의 상점들이 즐비한 거리입니다.</t>
+  </si>
+  <si>
+    <t>스페인에서 가장 유명한 대형 백화점으로, 다양한 상품과 브랜드를 구매할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나의 대형 실내 시장으로, 신선한 식품, 음식, 의류 등 다양한 상품을 살펴볼 수 있습니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나의 유명한 번화가로, 상점, 레스토랑, 카페 등 다양한 상업 시설과 거리 예술가들이 모여 활기차게 분위기를 만들어줍니다.</t>
+  </si>
+  <si>
+    <t>신선한 식재료와 로컬 음식을 즐길 수 있는 바르셀로나의 대표적인 실내 시장으로, 다양한 맛과 향을 경험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>안토니 가우디의 작품으로 유명한 공원으로, 독특한 건축물과 아름다운 경치가 인상적입니다.</t>
+  </si>
+  <si>
+    <t>안토니 가우디가 디자인한 건물로, 곡선적인 형태와 독특한 디자인이 특징이며, 예술 전시와 문화 행사가 열리는 공간으로 알려져 있습니다.</t>
+  </si>
+  <si>
+    <t>안토니 가우디의 걸작으로, 아직도 건설 중인 바르셀로나의 대표적인 성당으로, 그림 같은 외관과 아름다운 내부가 많은 이들의 관심을 끌고 있습니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나의 카지노로, 다양한 도박과 엔터테인먼트를 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나의 대표적인 카지노로, 슬롯 머신, 블랙잭, 포커 등 다양한 게임을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나의 문화적 유산으로, 독특한 모던리즘 양식으로 건축된 공연장으로서, 음악 공연과 문화 이벤트가 열리는 장소입니다.</t>
+  </si>
+  <si>
+    <t>대형 수족관으로, 다양한 해양 생물들을 관찰할 수 있으며, 유명한 상어 터널도 있어 많은 관광객들이 찾는 명소입니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나의 아름다운 광장으로, 행사와 축제가 열리는 장소로서 현지 문화와 분위기를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>스페인의 대표적인 예술 박물관으로, 고전적인 예술 작품들을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마드리드의 현대 예술을 전시하는 박물관으로, 구르날디의 '게릴라'와 피카소의 '게르니카' 등 유명한 작품을 보여줍니다.</t>
+  </si>
+  <si>
+    <t>스페인 왕가의 거주지로 사용되는 궁전으로, 아름다운 정원과 화려한 내부 장식을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마드리드의 아이콘적인 건물로, 예술과 문화 이벤트가 개최되는 장소입니다.</t>
+  </si>
+  <si>
+    <t>스페인의 동전 박물관으로, 동전과 화폐의 역사와 제작 과정을 알아볼 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마드리드에서 가장 유명한 공원으로, 아름다운 풍경과 호수, 조각상 등을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마드리드의 중심부에 위치한 아름다운 광장으로, 건축물들의 아름다움과 다양한 이벤트가 열리는 장소입니다.</t>
+  </si>
+  <si>
+    <t>마드리드의 중심에 위치한 건물로, 국립증권거래소로 사용되며 아름다운 건축물입니다.</t>
+  </si>
+  <si>
+    <t>레알 마드리드 축구클럽의 홈 경기장으로, 축구 팬들에게는 매우 중요한 장소입니다.</t>
+  </si>
+  <si>
+    <t>베르나베우 경기장(Estadio Santiago Bernabéu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://res.klook.com/images/fl_lossy.progressive,q_65/c_fill,w_1295,h_834/w_80,x_15,y_15,g_south_west,l_Klook_water_br_trans_yhcmh3/activities/x5smrggpdtqeu3rs7fzf/%EB%A7%88%EB%93%9C%EB%A6%AC%EB%93%9C%EB%A0%88%EC%95%8C%EB%A7%88%EB%93%9C%EB%A6%AC%EB%93%9C%EC%82%B0%ED%8B%B0%EC%95%84%EA%B3%A0%EB%B2%A0%EB%A5%B4%EB%82%98%EB%B2%A0%EC%9A%B0%EA%B2%BD%EA%B8%B0%EC%9E%A5%EB%B0%95%EB%AC%BC%EA%B4%80%EC%9E%85%EC%9E%A5%EA%B6%8C.webp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아틀레티코 마드리드 축구 클럽의 새로운 홈 경기장으로, 현대적인 시설과 열정적인 축구 경기를 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>레알 마드리드 축구 클럽의 역사와 성취를 소개하는 박물관으로, 유명한 선수들의 유니폼과 트로피 등을 관람할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>아틀레티코 마드리드 축구 클럽의 역사와 업적을 소개하는 박물관으로, 유명한 선수들의 유니폼과 트로피를 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>스페인 축구 국가대표팀의 역사와 선수들의 업적을 소개하는 박물관으로, 월드컵 트로피와 관련된 전시물도 볼 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마드리드 근처에 있는 아름다운 자연 보호지로, 등산, 하이킹, 스키 등 야외 활동을 즐길 수 있는 명소입니다.</t>
+  </si>
+  <si>
+    <t>마드리드의 강인 맨자나레스 강을 따라 조성된 공원으로, 산책로, 자전거 경로, 체육 시설 등이 있어 자연과 운동을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마드리드의 큰 공원으로, 호수, 동물원, 골프장, 놀이공원 등 다양한 활동과 휴식을 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>마드리드에서 가까운 산으로, 등산, 스키, 하이킹 등 야외 활동을 즐길 수 있는 자연지입니다.</t>
+  </si>
+  <si>
+    <t>마드리드의 대표적인 놀이공원으로, 롤러코스터, 유원지, 엔터테인먼트 등 다양한 놀이 시설과 액티비티를 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>워너 브라더스 스튜디오의 주제공원으로, 유명한 캐릭터들과의 만남, 스릴 넘치는 놀이기구, 쇼 등 다양한 경험을 제공합니다.</t>
+  </si>
+  <si>
+    <t>마드리드의 주요 상업 거리로, 상점, 레스토랑, 카페 등 다양한 상업 시설과 번화한 분위기가 특징입니다.</t>
+  </si>
+  <si>
+    <t>마드리드의 주요 상점가로, 유명한 브랜드들의 매장이 나열되어 있어 쇼핑을 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>마드리드의 역사적인 지구로, 현지의 문화와 역동적인 분위기를 느낄 수 있는 다양한 레스토랑, 바, 예술 공간 등이 위치해 있습니다.</t>
+  </si>
+  <si>
+    <t>마드리드의 대표적인 실내 시장으로, 신선한 제철 식품과 타파스를 즐길 수 있으며, 분위기 있는 카페와 바도 있습니다.</t>
+  </si>
+  <si>
+    <t>문화와 역사적인 느낌이 물씬 풍기는 거리로, 다양한 바, 레스토랑, 클럽이 있어 밤에도 분위기를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>현대적인 디자인의 시장으로, 신선한 식품, 레스토랑, 바, 테라스 등이 있어 다양한 맛과 분위기를 경험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마드리드의 아름다운 광장으로, 카페, 레스토랑, 호텔 등이 있어 휴식과 함께 문화적인 분위기를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마드리드의 중심에 위치한 아름다운 광장으로, 명승과 다양한 상점, 레스토랑 등이 있어 휴식과 쇼핑을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마드리드에서 가장 유명한 공원으로, 아름다운 정원, 호수, 조각상 등이 있어 산책이나 휴식을 즐길 수 있는 명소입니다.</t>
+  </si>
+  <si>
+    <t>마드리드의 아름다운 다리로, 마노사강을 가로지르며 멋진 전망을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마드리드의 대표적인 궁전으로, 화려한 외관과 내부 장식, 정원을 감상할 수 있으며, 역사적인 투어를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마드리드의 대표적인 카지노로, 다양한 도박과 엔터테인먼트를 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>역사적인 건물에 위치한 카지노로, 다양한 도박 게임과 즐길 거리를 제공합니다.</t>
+  </si>
+  <si>
+    <t>마드리드의 중심에 위치한 카지노로, 아름다운 건물과 다양한 게임을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>아랑푸에스에서 운영되는 카지노로, 휴식과 도박을 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>마드리드의 아이콘적인 건물로, 문화 이벤트와 전시를 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>마드리드의 중심에 위치한 아름다운 광장으로, 역사적인 건물과 카페 테라스가 있어 분위기를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마드리드의 대표적인 대성당으로, 세련된 건축과 성당 내부의 아름다운 장식을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야에 위치한 아름다운 궁전으로, 모로 전통과 고딕 양식을 결합한 건축물을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야의 상징적인 대성당으로, 고딕 양식의 건축물과 세비야의 유명한 종탑을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야의 아이콘적인 건축물로, 고대의 성벽 탑으로 유명하며, 세비야의 아름다운 전망을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야에 위치한 아름다운 궁전으로, 레니상스 양식의 건축물로 유명하며, 정원과 예술 전시를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야에서 가장 아름다운 공원으로, 화려한 정원과 조각상, 호수 등이 있어 휴식과 산책을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야의 중요한 건물로, 바로크 양식의 건축물로 유명하며, 문화 및 예술 행사가 개최되는 장소입니다.</t>
+  </si>
+  <si>
+    <t>세비야의 현대 미술을 전시하는 박물관으로, 다양한 작품과 전시물을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야의 국립 고고학 박물관으로, 고대 문화와 유물을 전시하고 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야의 전통적인 공예품과 문화를 전시하는 박물관으로, 지역의 예술과 스페인의 전통을 경험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야의 축구 경기장으로, 베티스 축구 클럽의 홈 구장으로 알려져 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야의 축구 경기장으로, 세비야 축구 클럽의 홈 구장으로 알려져 있으며, 열정적인 축구 경기를 관람할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야를 가로지르는 강으로, 강변을 따라 산책이나 배 타기를 즐길 수 있으며, 아름다운 전망을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야에서 가까운 자연 공원으로, 아름다운 경관과 동식물을 관찰할 수 있는 명소입니다.</t>
+  </si>
+  <si>
+    <t>세비야 근처의 국립 공원으로, 다양한 생태계와 희귀한 동물들을 관찰할 수 있는 자연 보호지입니다.</t>
+  </si>
+  <si>
+    <t>세비야의 대표적인 대성당으로, 고딕 양식의 건축물로 유명하며, 세비야의 유서 깊은 종탑과 아름다운 내부를 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야에서 가장 아름다운 건물로, 모로 양식과 고딕 양식이 혼합된 건축물로 유명하며, 아름다운 정원과 장식을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야의 주요 상점가로, 다양한 상점, 레스토랑, 카페가 나열되어 있어 쇼핑과 음식을 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>세비야의 현대적인 쇼핑몰로, 유명한 브랜드와 다양한 상점이 모여있어 쇼핑을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야에서 가장 유명한 백화점으로, 다양한 제품과 브랜드를 구매할 수 있는 쇼핑 장소입니다.</t>
+  </si>
+  <si>
+    <t>세비야의 전통적인 지구로, 좁은 골목과 아름다운 광장, 예술 작품들이 있는 거리로 유명하며, 세비야의 매력을 느낄 수 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야의 현대적인 시장으로, 신선한 식품과 지역적인 제품을 구매할 수 있으며, 특색 있는 식사를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야의 유명한 시나고가 사원으로, 모로양식의 아름다운 건축물로 유명합니다.</t>
+  </si>
+  <si>
+    <t>세비야에서 가장 유명한 관광지로, 세계에서 가장 큰 고딕 양식 대성당으로 알려져 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야에 위치한 아름다운 궁전으로, 모로양식과 고딕양식이 혼합된 건축물로 유명합니다.</t>
+  </si>
+  <si>
+    <t>세비야에 위치한 아름다운 궁전으로, 히스패노-플라멩코 양식으로 건축된 궁전입니다.</t>
+  </si>
+  <si>
+    <t>세비야의 대표적인 공원으로, 아름다운 정원과 분수, 동화적인 건축물들로 가득 차 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야의 대표적인 투우장으로, 투우를 관람할 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>세비야 대성당 내에 위치한 종탑으로, 세비야의 상징적인 랜드마크입니다.</t>
+  </si>
+  <si>
+    <t>세비야의 대표적인 건축물로, 스페인 양식의 아름다운 궁전입니다.</t>
+  </si>
+  <si>
+    <t>세비야의 현대적인 건축물로, 세계에서 가장 큰 목재 구조물로 알려져 있으며, 전망대와 공공 공간으로 이용됩니다.</t>
+  </si>
+  <si>
+    <t>세비야의 중요한 광장인 푸에르타 데 하라 광장으로, 마요르 광장과 세비야 대성당 사이에 위치해 있습니다.</t>
+  </si>
+  <si>
+    <t>발렌시아에서 가장 유명한 대성당으로, 성배가 보관되어 있으며, 독특한 건축 양식과 아름다운 전망을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>발렌시아에 위치한 중세 건축물로, 세계 문화유산에 등재된 건물로 유명하며, 아름다운 내부와 유럽 중세 건축의 명작입니다.</t>
+  </si>
+  <si>
+    <t>발렌시아의 주요 미술관으로, 발렌시아 지역과 스페인의 미술 작품을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>현대적인 건축물과 과학 박물관, 영화관, 해양 공원 등을 포함한 대규모 문화 공간으로 발렌시아의 상징적인 장소입니다.</t>
+  </si>
+  <si>
+    <t>발렌시아 축구 클럽의 홈 구장으로, 역사와 열정이 실린 축구 경기를 관람할 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>발렌시아 축구 클럽의 역사와 유물을 전시하고 있는 박물관으로, 축구 팬들에게 인기가 있습니다.</t>
+  </si>
+  <si>
+    <t>현대적인 동물원으로, 다양한 동물들을 자연스러운 환경에서 관찰할 수 있는 곳입니다.</t>
+  </si>
+  <si>
+    <t>발렌시아의 주요 해변으로, 아름다운 모래사장과 해양 레저 활동을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>고대 강이 변신한 도시 공원으로, 자전거 타기, 산책하기, 피크닉하기 등 야외 활동을 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>발렌시아 근처의 자연보호지로, 아름다운 호수와 습지 생태계를 탐험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>발렌시아에서 가장 아름다운 해변 중 하나로, 황금 모래와 푸른 바다가 조화롭게 어우러진 휴식과 해양 레저 활동을 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>발렌시아의 멋진 요트와 배들이 모여 있는 항구로, 도시의 아름다운 해안선을 따라 산책하거나 다양한 레스토랑과 상점을 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>자연스러운 환경에서 다양한 동물들을 관찰할 수 있는 동물원으로, 생태계의 아름다움과 동물들의 생활을 체험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>유럽 최대 규모의 해양 생물원으로, 다양한 해양 생물들을 관찰하고 상호작용할 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>상호작용 전시물과 과학적 실험을 통해 자연과 과학에 대해 배울 수 있는 박물관입니다.</t>
+  </si>
+  <si>
+    <t>발렌시아의 대표적인 전통 시장으로, 신선한 과일, 채소, 해산물, 고기 등 다양한 식품을 구매할 수 있는 곳입니다.</t>
+  </si>
+  <si>
+    <t>발렌시아에서 유명한 실내 시장으로, 신선한 제품과 로컬 델리카테센을 구매할 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>발렌시아의 번화가로, 다양한 상점, 레스토랑, 카페 등이 위치해 있어 쇼핑과 음식을 즐길 수 있는 곳입니다.</t>
+  </si>
+  <si>
+    <t>발렌시아에서 유명한 백화점으로, 다양한 상품과 브랜드를 찾을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>발렌시아의 대표적인 시장으로, 신선한 과일, 채소, 해산물, 고기 등 다양한 식품을 구매할 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>바르셀로나의 전통 시장으로, 신선한 식품뿐만 아니라 현대적인 디자인과 컬러풀한 지붕 구조로 유명합니다.</t>
+  </si>
+  <si>
+    <t>발렌시아에서 유명한 할로우(Horchata)를 맛볼 수 있는 전통 카페로, 시원하고 고소한 음료를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>스페인의 국립 미술관으로, 고전적인 스페인 작품과 유럽의 대표적인 화가들의 작품을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>스페인에 위치한 중세 수도원으로, 아름다운 건축물과 평화로운 분위기를 느낄 수 있는 곳입니다.</t>
+  </si>
+  <si>
+    <t>스페인의 마요르카 섬에 위치한 현대 미술관으로, 조안 미로의 작품과 그의 예술적 업적을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>스페인 바렐로나에 위치한 성당으로, 고딕 양식의 아름다운 건축과 바렐로나의 역사적 중요성을 가지고 있습니다.</t>
+  </si>
+  <si>
+    <t>스페인의 마요르카 섬에 위치한 대성당으로, 고딕 양식의 건축물로 유명하며, 예술적 가치와 종교적 의미를 지니고 있습니다.</t>
+  </si>
+  <si>
+    <t>스페인 마요르카 섬에 위치한 산맥으로, 아름다운 풍경과 등산, 하이킹을 즐길 수 있는 자연 지형입니다.</t>
+  </si>
+  <si>
+    <t>스페인 바렐로나 근처의 자연 보호 지역으로, 신비로운 섬과 해양 생태계를 탐험할 수 있는 곳입니다.</t>
+  </si>
+  <si>
+    <t>마요르카 섬에 위치한 자연 공원으로, 아름다운 해변, 자연 보호 지역 및 다양한 식물과 동물 종을 경험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마요르카 섬의 자연 보호 지역으로, 습지 생태계와 다양한 조류들을 관찰하고 산책로를 따라 자연을 탐험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마요르카 섬의 동굴로, 아름다운 석순과 지하 호수로 유명하며, 음악 콘서트와 보트 여행도 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마요르카 섬의 해안 마을로, 독특한 자연 경관과 아름다운 해변을 감상할 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>마요르카 섬의 산으로, 아름다운 전망과 종교적인 성소들을 포함하고 있습니다.</t>
+  </si>
+  <si>
+    <t>마요르카 섬에 위치한 자연 보호 지역으로, 동굴, 해변, 야생 동물 등 다양한 자연 경관을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마요르카 섬의 북쪽에 위치한 고지대로, 아름다운 해안 경치와 풍부한 자연을 감상할 수 있는 명소입니다.</t>
+  </si>
+  <si>
+    <t>마요르카 섬을 탐험하는 바이킹 테마의 투어로, 동굴, 해변 및 자연 경관을 탐험하며 마요르카 섬의 역사와 문화를 알아볼 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마요르카 섬의 북쪽 끝에 위치한 고지대로, 아름다운 전망과 경치가 펼쳐진 해안 도로로 유명합니다.</t>
+  </si>
+  <si>
+    <t>팔마에 위치한 번화가로, 상점, 카페, 레스토랑 등이 즐비한 곳으로 쇼핑과 문화를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>팔마에 위치한 쇼핑 센터로, 다양한 브랜드의 상점과 엔터테인먼트 시설을 제공합니다.</t>
+  </si>
+  <si>
+    <t>마요르카 섬에 위치한 현대적인 쇼핑 센터로, 다양한 브랜드와 상점들이 모여 쇼핑을 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>팔마에 위치한 전통적인 시장으로, 신선한 식품과 로컬 제품을 구매하고 현지 문화를 경험할 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>팔마의 대성당으로, 고딕 양식의 아름다운 건축과 종교적인 중요성을 지니고 있는 성당입니다.</t>
+  </si>
+  <si>
+    <t>마요르카 섬에 위치한 아름다운 마을로, 역사적인 건축물과 자연 경관을 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>발데모사에 위치한 중세 수도원으로, 차르트뤼제스 부부의 체류지로 유명하며, 아름다운 정원과 역사적인 가치를 갖고 있습니다.</t>
+  </si>
+  <si>
+    <t>마요르카 섬의 아름다운 항구로, 해변, 레스토랑, 상점들이 위치해 있어 휴식과 해양 레저를 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>팔마에 위치한 동그란 형태의 중세 성으로, 아름다운 전망과 역사적인 가치를 가지고 있는 명소입니다.</t>
+  </si>
+  <si>
+    <t>마요르카 섬에 위치한 역사적인 경비탑으로, 마요르카의 경치를 감상할 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>마요르카 섬의 산맥으로, 아름다운 자연 경관과 등산, 하이킹을 즐길 수 있는 자연 지형입니다.</t>
+  </si>
+  <si>
+    <t>마요르카 섬 근해에 위치한 작은 섬으로, 투어를 통해 아름다운 해변과 자연을 탐험할 수 있는 곳입니다.</t>
+  </si>
+  <si>
+    <t>팔마에 위치한 카지노로, 게임과 엔터테인먼트를 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>마요르카 섬의 해변 도시로, 아름다운 해안 풍경과 해양 레저 활동을 즐길 수 있는 명소입니다.</t>
+  </si>
+  <si>
+    <t>마요르카 섬의 아름다운 항구 도시로, 아름다운 해변과 해안 경치, 레스토랑, 상점들이 위치한 휴식과 해양 레저를 즐길 수 있는 명소입니다.</t>
+  </si>
+  <si>
+    <t>마요르카 섬의 중세 성으로, 등산을 통해 정상에 오르면 아름다운 전망을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마요르카 섬의 성 길렘 교회로, 아름다운 고딕 양식의 건축물로 유명합니다.</t>
+  </si>
+  <si>
+    <t>스페인 팔마에 위치한 동그란 형태의 중세 성으로, 아름다운 전망과 역사적인 가치를 가지고 있습니다.</t>
+  </si>
+  <si>
+    <t>스페인 그라나다에 위치한 모로코 양식의 궁전으로, 아름다운 정원과 몽환적인 분위기를 갖고 있어 많은 관광객들에게 인기가 있습니다.</t>
+  </si>
+  <si>
+    <t>스페인 그라나다의 대성당으로, 레니세히 양식의 건축물로 유명하며, 그라나다의 상징적인 명소입니다.</t>
+  </si>
+  <si>
+    <t>그라나다에 위치한 아름다운 정원과 함께 있는 공원 안의 극장으로, 콘서트와 연극 등 다양한 문화 행사를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>그라나다에 위치한 카르투사 수도원으로, 아름다운 건축물과 평화로운 분위기를 느낄 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>그라나다에 위치한 축구 경기장으로, 그라나다 CF의 홈 구장으로 사용되고 있습니다.</t>
+  </si>
+  <si>
+    <t>발라도리드에 위치한 축구 경기장으로, RCD 발라도리드의 홈 구장으로 사용되고 있습니다.</t>
+  </si>
+  <si>
+    <t>그라나다에 위치한 다목적 경기장으로, 다양한 스포츠 및 문화 행사가 개최되는 장소입니다.</t>
+  </si>
+  <si>
+    <t>그라나다 근처의 자연 보호 지역으로, 아름다운 산악 경관과 등산, 하이킹을 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>그라나다 근처의 자연 공원으로, 아름다운 경치와 자연적인 산책로를 따라 산책할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>그라나다에 위치한 예술적인 마을로, 예술 작품과 유서깊은 건축물을 감상할 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>그라나다의 역사적인 알바이신 지구에 위치한 스파로, 편안한 휴식과 몸과 마음을 치유하는 시간을 제공합니다.</t>
+  </si>
+  <si>
+    <t>그라나다의 아름다운 산악지형에서 진행되는 암벽등반 체험으로, 모험과 스릴을 즐기는 사람들에게 인기가 있습니다.</t>
+  </si>
+  <si>
+    <t>그라나다의 도시 및 주변 지역을 자전거로 탐험하는 투어로, 역사적인 명소와 아름다운 경치를 경험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>스페인에서 가장 인기 있는 스키 리조트인 Sierra Nevada에서 탁월한 스키 및 스노보드 체험을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>그라나다의 중심지에 위치한 번화가로, 다양한 상점과 레스토랑이 모여있어 쇼핑과 식사를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>그라나다의 중심부에 위치한 중요한 광장으로, 아름다운 분수와 역사적인 건물이 있습니다.</t>
+  </si>
+  <si>
+    <t>그라나다의 전통적인 지역으로, 아름다운 거리와 마을 분위기를 경험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>그라나다에서 가장 매력적인 지역 중 하나로, 골목길과 화려한 전망을 제공합니다.</t>
+  </si>
+  <si>
+    <t>신선한 제품과 로컬 음식을 판매하는 그라나다의 중앙 시장으로, 현지 문화와 다양한 맛을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>그라나다의 역사적인 유적지인 Alhambra에 위치한 아라비아 양식의 정원으로, 아름다운 정원과 분수를 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>그라나다의 전통적인 와인 바로, 현지 와인과 타파스를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>그라나다의 매력적인 동네로, 전통적인 건물과 현지 문화를 경험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>그라나다에서 가장 유명한 관광지로, 아름다운 모로 요새와 정원을 포함하고 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야에 위치한 아름다운 궁전으로, 몽쿨레스 궁전과 함께 아라비아 스타일의 아름다움을 선사합니다.</t>
+  </si>
+  <si>
+    <t>그라나다의 중심에 위치한 장대한 대성당으로, 광활한 공간과 예술적 가치를 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>그라나다 알함브라 궁전 근처에 위치한 아름다운 교회로, 세비야 양식의 건축과 예술을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>그라나다의 중심에 위치한 아름다운 광장으로, 카페와 레스토랑이 모여있어 휴식과 식사를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>그라나다에서 가장 아름다운 전망을 제공하는 전망대로, 알함브라 궁전과 도시의 아름다움을 한눈에 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>그라나다의 특별한 지역으로, 독특한 벽화와 플라멩코 문화를 경험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>그라나다의 고전적인 궁전으로, 아름다운 정원과 건물을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>코르도바에 위치한 아름다운 건축물로, 이슬람과 크리스천 문화의 유럽 사회 역사적 상징입니다.</t>
+  </si>
+  <si>
+    <t>코르도바의 현대미술을 전시하는 박물관으로, 다양한 작품을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>고딕과 루네스크 양식의 건물에 위치한 코르도바의 미술 박물관으로, 유서 깊은 작품들을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>코르도바에 위치한 아름다운 궁전으로, 독특한 건축 양식과 역사적인 가치를 가지고 있습니다.</t>
+  </si>
+  <si>
+    <t>코르도바의 역사적인 중심지로, 모로 문화와 기독교 문화가 어우러진 곳으로 유네스코 세계 문화 유산입니다.</t>
+  </si>
+  <si>
+    <t>코르도바에 위치한 축구 경기장으로, 코르도바 CF의 홈 구장으로 알려져 있습니다.</t>
+  </si>
+  <si>
+    <t>코르도바에 위치한 다목적 경기장으로, 다양한 스포츠와 이벤트가 개최됩니다.</t>
+  </si>
+  <si>
+    <t>코르도바에 위치한 축구 경기장으로, CD 루베타데 카르타후에나의 홈 구장입니다.</t>
+  </si>
+  <si>
+    <t>코르도바 근처에 위치한 자연 보호 지역으로, 다양한 동물과 식물 종들을 관찰하고 하이킹을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>코르도바의 구시가지에 위치한 아름다운 호텔과 레스토랑으로, 전통적인 분위기와 아라비안 스타일의 건물을 경험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>코르도바에서 가장 유명한 백화점으로, 다양한 상품과 브랜드를 쇼핑할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>코르도바의 전통적인 레스토랑으로, 지역 요리와 특별한 대접을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>코르도바에 위치한 전통 와이너리로, 맛있는 와인과 안달루시아 지역의 요리를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>코르도바에서 유명한 아르헨티나 스타일의 스테이크 하우스로, 고급스러운 스테이크 요리를 맛볼 수 있습니다.</t>
+  </si>
+  <si>
+    <t>코르도바의 카지노로, 게임과 엔터테인먼트를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>코르도바의 중심에 위치한 아름다운 광장으로, 모스크 성당과 인근의 상점과 카페를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>코르도바의 대표적인 성당으로, 아름다운 건축과 예술 작품을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>코르도바의 역사적인 교회로, 아름다운 종탑과 예배 공간을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>코르도바의 유명한 다리로, 아라비안 양식의 타워와 함께 아름다운 전망을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>코르도바에서 가장 중요한 대성당 중 하나로, 근대 건축 양식과 예술 작품을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>코르도바의 중심에 위치한 공연장으로, 오페라, 발레, 공연 등 다양한 예술 공연을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>코르도바에 위치한 아라비안 양식의 궁전으로, 아름다운 정원과 건축물을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야에 위치한 현대 예술을 전시하는 문화 예술 센터입니다.</t>
+  </si>
+  <si>
+    <t>세비야의 역사적인 궁전으로, 아름다운 건축과 정원을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야에 위치한 프로 축구 클럽 베티스의 홈 구장으로, 축구 경기를 관람할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>안달루시아 지역에 위치한 자연 보호 지역으로, 다양한 생물 종류와 아름다운 풍경을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야를 흐르는 큰 강으로, 강변 산책이나 유람선을 통해 아름다운 경치를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야에 위치한 아라비안 양식의 궁전으로, 아름다운 정원과 건축물을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야의 대표적인 공원으로, 아름다운 정원과 호수가 있는 휴식처입니다.</t>
+  </si>
+  <si>
+    <t>세비야의 대표적인 궁전으로, 아라비안 양식과 고딕 양식의 건축물을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>세비야의 주요 상점과 상점가로, 쇼핑과 거리 문화를 즐길 수 있는 지역입니다.</t>
+  </si>
+  <si>
+    <t>세비야에서 유명한 전통적인 타파스와 와인을 즐길 수 있는 레스토랑입니다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1497,6 +2196,32 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="5"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1525,18 +2250,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1853,10 +2584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2BC2C5-574B-4153-8F69-7B7ECA9C0D99}">
-  <dimension ref="A1:E337"/>
+  <dimension ref="A1:F337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D324" sqref="D324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1865,11 +2596,12 @@
     <col min="2" max="2" width="68.09765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.09765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="5" width="16.09765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.19921875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1883,15 +2615,18 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" s="1">
         <v>4.5</v>
@@ -1899,16 +2634,19 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C3" s="1">
         <v>3.5</v>
@@ -1916,16 +2654,19 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E3" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -1933,16 +2674,19 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E4" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C5" s="1">
         <v>3.5</v>
@@ -1950,16 +2694,19 @@
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E5" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
@@ -1967,11 +2714,14 @@
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1984,11 +2734,14 @@
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -2001,11 +2754,14 @@
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E8" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -2018,11 +2774,14 @@
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E9" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -2035,11 +2794,14 @@
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E10" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -2052,11 +2814,14 @@
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E11" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -2069,11 +2834,14 @@
       <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E12" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -2086,11 +2854,14 @@
       <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E13" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -2103,11 +2874,14 @@
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E14" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -2120,11 +2894,14 @@
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E15" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -2137,11 +2914,14 @@
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E16" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2154,11 +2934,14 @@
       <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E18" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -2171,11 +2954,14 @@
       <c r="D19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E19" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -2188,11 +2974,14 @@
       <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E20" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -2205,11 +2994,14 @@
       <c r="D21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E21" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -2222,11 +3014,14 @@
       <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E22" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -2239,11 +3034,14 @@
       <c r="D23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E23" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -2256,11 +3054,14 @@
       <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E25" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -2273,11 +3074,14 @@
       <c r="D26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E26" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -2290,11 +3094,14 @@
       <c r="D27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E27" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -2307,11 +3114,14 @@
       <c r="D29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E29" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -2324,11 +3134,14 @@
       <c r="D30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E30" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -2341,11 +3154,14 @@
       <c r="D31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E31" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -2358,11 +3174,14 @@
       <c r="D32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E32" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -2375,11 +3194,14 @@
       <c r="D33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E33" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -2392,11 +3214,14 @@
       <c r="D34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E34" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -2409,11 +3234,14 @@
       <c r="D35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E35" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -2426,11 +3254,14 @@
       <c r="D36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E36" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -2443,11 +3274,14 @@
       <c r="D38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E38" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -2460,11 +3294,14 @@
       <c r="D39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E39" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>5</v>
       </c>
@@ -2477,11 +3314,14 @@
       <c r="D40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E40" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>5</v>
       </c>
@@ -2494,11 +3334,14 @@
       <c r="D42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E42" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>5</v>
       </c>
@@ -2511,11 +3354,14 @@
       <c r="D44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E44" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>6</v>
       </c>
@@ -2528,11 +3374,14 @@
       <c r="D50" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E50" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>6</v>
       </c>
@@ -2545,11 +3394,14 @@
       <c r="D51" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E51" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>7</v>
       </c>
@@ -2562,11 +3414,14 @@
       <c r="D52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E52" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>7</v>
       </c>
@@ -2579,11 +3434,14 @@
       <c r="D53" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E53" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>7</v>
       </c>
@@ -2596,11 +3454,14 @@
       <c r="D54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E54" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>8</v>
       </c>
@@ -2613,11 +3474,14 @@
       <c r="D56" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E56" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>8</v>
       </c>
@@ -2630,11 +3494,14 @@
       <c r="D57" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E57" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>9</v>
       </c>
@@ -2645,13 +3512,16 @@
         <v>4</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>9</v>
       </c>
@@ -2662,13 +3532,16 @@
         <v>4</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>9</v>
       </c>
@@ -2679,13 +3552,16 @@
         <v>3.5</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>10</v>
       </c>
@@ -2698,11 +3574,14 @@
       <c r="D61" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E61" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>10</v>
       </c>
@@ -2715,11 +3594,14 @@
       <c r="D62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E62" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>10</v>
       </c>
@@ -2732,11 +3614,14 @@
       <c r="D63" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E63" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>10</v>
       </c>
@@ -2749,11 +3634,14 @@
       <c r="D64" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E64" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>10</v>
       </c>
@@ -2766,11 +3654,14 @@
       <c r="D66" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E66" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>10</v>
       </c>
@@ -2783,11 +3674,14 @@
       <c r="D67" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E67" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>10</v>
       </c>
@@ -2800,11 +3694,14 @@
       <c r="D68" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E68" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>10</v>
       </c>
@@ -2817,118 +3714,124 @@
       <c r="D69" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E69" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>11</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>63</v>
+        <v>523</v>
       </c>
       <c r="C70" s="1">
         <v>4.5</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>11</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C71" s="1">
         <v>4</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>11</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C72" s="1">
-        <v>4</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>11</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C73" s="1">
         <v>4.5</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>11</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C74" s="1">
         <v>3.5</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>11</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C75" s="1">
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>12</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C76" s="1">
         <v>4</v>
@@ -2936,16 +3839,19 @@
       <c r="D76" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E76" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>12</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C78" s="1">
         <v>3</v>
@@ -2953,16 +3859,19 @@
       <c r="D78" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E78" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>12</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C79" s="1">
         <v>3.5</v>
@@ -2970,16 +3879,19 @@
       <c r="D79" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E79" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>12</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C82" s="1">
         <v>3.5</v>
@@ -2987,16 +3899,19 @@
       <c r="D82" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E82" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>13</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C83" s="1">
         <v>3</v>
@@ -3004,16 +3919,19 @@
       <c r="D83" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E83" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>13</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C84" s="1">
         <v>4</v>
@@ -3021,16 +3939,19 @@
       <c r="D84" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E84" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>14</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C88" s="1">
         <v>4</v>
@@ -3038,16 +3959,19 @@
       <c r="D88" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E88" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>14</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C89" s="1">
         <v>4</v>
@@ -3055,16 +3979,19 @@
       <c r="D89" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E89" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>14</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C90" s="1">
         <v>3.5</v>
@@ -3072,16 +3999,19 @@
       <c r="D90" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E90" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>15</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C93" s="1">
         <v>4.5</v>
@@ -3089,16 +4019,19 @@
       <c r="D93" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E93" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>15</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C94" s="1">
         <v>4</v>
@@ -3106,16 +4039,19 @@
       <c r="D94" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E94" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>15</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C95" s="1">
         <v>4</v>
@@ -3123,16 +4059,19 @@
       <c r="D95" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E95" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>15</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C96" s="1">
         <v>3.5</v>
@@ -3140,16 +4079,19 @@
       <c r="D96" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E96" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>15</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C97" s="1">
         <v>3.5</v>
@@ -3157,16 +4099,19 @@
       <c r="D97" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E97" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>16</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C98" s="1">
         <v>4</v>
@@ -3174,16 +4119,19 @@
       <c r="D98" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E98" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>16</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C99" s="1">
         <v>4.5</v>
@@ -3191,16 +4139,19 @@
       <c r="D99" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E99" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>16</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C100" s="1">
         <v>3</v>
@@ -3208,16 +4159,19 @@
       <c r="D100" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E100" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>16</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C101" s="1">
         <v>3.5</v>
@@ -3225,16 +4179,19 @@
       <c r="D101" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E101" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>16</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C102" s="1">
         <v>4</v>
@@ -3242,16 +4199,19 @@
       <c r="D102" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E102" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>17</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C103" s="1">
         <v>3.5</v>
@@ -3259,16 +4219,19 @@
       <c r="D103" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E103" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>17</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C104" s="1">
         <v>3</v>
@@ -3276,16 +4239,19 @@
       <c r="D104" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E104" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>17</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C105" s="1">
         <v>4</v>
@@ -3293,16 +4259,19 @@
       <c r="D105" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E105" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>17</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C106" s="1">
         <v>2.5</v>
@@ -3310,28 +4279,34 @@
       <c r="D106" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E106" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>18</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C107" s="1">
         <v>4</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>18</v>
       </c>
@@ -3342,69 +4317,81 @@
         <v>4</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>18</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C109" s="1">
         <v>4.5</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>18</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C110" s="1">
         <v>3.5</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>18</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C111" s="1">
         <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>19</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C112" s="1">
         <v>5</v>
@@ -3412,16 +4399,19 @@
       <c r="D112" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E112" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E112" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>19</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C113" s="1">
         <v>4.5</v>
@@ -3429,16 +4419,19 @@
       <c r="D113" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E113" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>19</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C114" s="1">
         <v>3.5</v>
@@ -3446,16 +4439,19 @@
       <c r="D114" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E114" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>19</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C116" s="1">
         <v>3.5</v>
@@ -3463,16 +4459,19 @@
       <c r="D116" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E116" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>19</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C117" s="1">
         <v>4</v>
@@ -3480,16 +4479,19 @@
       <c r="D117" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E117" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>19</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C118" s="1">
         <v>3.5</v>
@@ -3497,16 +4499,19 @@
       <c r="D118" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E118" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>19</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C119" s="1">
         <v>3</v>
@@ -3514,16 +4519,19 @@
       <c r="D119" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E119" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>19</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C120" s="1">
         <v>3.5</v>
@@ -3531,16 +4539,19 @@
       <c r="D120" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E120" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>19</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C121" s="1">
         <v>3.5</v>
@@ -3548,50 +4559,59 @@
       <c r="D121" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E121" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>20</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C122" s="1">
         <v>3.5</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>20</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C123" s="1">
         <v>4</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>21</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C125" s="1">
         <v>4</v>
@@ -3599,16 +4619,19 @@
       <c r="D125" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E125" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>21</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C126" s="1">
         <v>3.5</v>
@@ -3616,16 +4639,19 @@
       <c r="D126" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E126" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>21</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C127" s="1">
         <v>4.5</v>
@@ -3633,16 +4659,19 @@
       <c r="D127" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E127" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>22</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C129" s="1">
         <v>4</v>
@@ -3650,16 +4679,19 @@
       <c r="D129" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E129" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>22</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C130" s="1">
         <v>4</v>
@@ -3667,16 +4699,19 @@
       <c r="D130" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E130" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>23</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C131" s="1">
         <v>4</v>
@@ -3684,16 +4719,19 @@
       <c r="D131" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E131" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>23</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C134" s="1">
         <v>3.5</v>
@@ -3701,16 +4739,19 @@
       <c r="D134" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E134" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>23</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C135" s="1">
         <v>3.5</v>
@@ -3718,16 +4759,19 @@
       <c r="D135" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E135" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>23</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C136" s="1">
         <v>3</v>
@@ -3735,16 +4779,19 @@
       <c r="D136" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E136" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>24</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C137" s="1">
         <v>4</v>
@@ -3752,33 +4799,24 @@
       <c r="D137" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E137" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>24</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C138" s="1">
-        <v>4</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>24</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C139" s="1">
         <v>3.5</v>
@@ -3786,16 +4824,19 @@
       <c r="D139" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E139" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>25</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C141" s="1">
         <v>4.5</v>
@@ -3803,16 +4844,19 @@
       <c r="D141" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E141" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>25</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C142" s="1">
         <v>4.5</v>
@@ -3820,16 +4864,19 @@
       <c r="D142" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E142" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>25</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C143" s="1">
         <v>4</v>
@@ -3837,16 +4884,19 @@
       <c r="D143" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E143" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>25</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C144" s="1">
         <v>4</v>
@@ -3854,16 +4904,19 @@
       <c r="D144" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E144" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>26</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C145" s="1">
         <v>3.5</v>
@@ -3871,135 +4924,159 @@
       <c r="D145" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E145" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>27</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C146" s="1">
         <v>4.5</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>27</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C147" s="1">
         <v>4</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>27</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C148" s="1">
         <v>4.5</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>27</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C149" s="1">
         <v>4</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>27</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C150" s="1">
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>27</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C151" s="1">
         <v>4</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>27</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C152" s="1">
         <v>3.5</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>28</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C155" s="1">
         <v>4</v>
@@ -4007,16 +5084,19 @@
       <c r="D155" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E155" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E155" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>28</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C156" s="1">
         <v>4</v>
@@ -4024,16 +5104,19 @@
       <c r="D156" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E156" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>28</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C157" s="1">
         <v>3.5</v>
@@ -4041,16 +5124,19 @@
       <c r="D157" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E157" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>28</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C160" s="1">
         <v>4</v>
@@ -4058,50 +5144,59 @@
       <c r="D160" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E160" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>29</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C161" s="1">
         <v>4</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>29</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C162" s="1">
         <v>3.5</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>30</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C165" s="1">
         <v>4.5</v>
@@ -4109,16 +5204,19 @@
       <c r="D165" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E165" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E165" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>30</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C166" s="1">
         <v>4</v>
@@ -4126,16 +5224,19 @@
       <c r="D166" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E166" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E166" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>30</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C167" s="1">
         <v>4.5</v>
@@ -4143,16 +5244,19 @@
       <c r="D167" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E167" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>30</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C168" s="1">
         <v>4</v>
@@ -4160,16 +5264,19 @@
       <c r="D168" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E168" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>30</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C169" s="1">
         <v>4</v>
@@ -4177,16 +5284,19 @@
       <c r="D169" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E169" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>30</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C170" s="1">
         <v>4</v>
@@ -4194,16 +5304,19 @@
       <c r="D170" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E170" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E170" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>31</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C172" s="1">
         <v>4.5</v>
@@ -4211,16 +5324,19 @@
       <c r="D172" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E172" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E172" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>31</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C173" s="1">
         <v>5</v>
@@ -4228,16 +5344,19 @@
       <c r="D173" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E173" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E173" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A174" s="1">
         <v>31</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C174" s="1">
         <v>4.5</v>
@@ -4245,16 +5364,19 @@
       <c r="D174" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E174" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E174" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>31</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C175" s="1">
         <v>4.5</v>
@@ -4262,16 +5384,19 @@
       <c r="D175" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E175" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E175" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>32</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C176" s="1">
         <v>4.5</v>
@@ -4279,16 +5404,19 @@
       <c r="D176" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E176" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E176" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A178" s="1">
         <v>32</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C178" s="1">
         <v>4</v>
@@ -4296,16 +5424,19 @@
       <c r="D178" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E178" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E178" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A179" s="1">
         <v>32</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C179" s="1">
         <v>3.5</v>
@@ -4313,16 +5444,19 @@
       <c r="D179" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E179" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E179" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A181" s="1">
         <v>33</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C181" s="1">
         <v>4</v>
@@ -4330,16 +5464,19 @@
       <c r="D181" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E181" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E181" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A183" s="1">
         <v>33</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C183" s="1">
         <v>4</v>
@@ -4347,16 +5484,19 @@
       <c r="D183" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E183" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E183" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A185" s="1">
         <v>33</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C185" s="1">
         <v>3.5</v>
@@ -4364,16 +5504,19 @@
       <c r="D185" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E185" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E185" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A192" s="1">
         <v>34</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C192" s="1">
         <v>4</v>
@@ -4381,16 +5524,19 @@
       <c r="D192" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E192" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A194" s="1">
         <v>34</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C194" s="1">
         <v>5</v>
@@ -4398,16 +5544,19 @@
       <c r="D194" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E194" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A195" s="1">
         <v>34</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C195" s="1">
         <v>4</v>
@@ -4415,16 +5564,19 @@
       <c r="D195" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E195" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E195" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A198" s="1">
         <v>34</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C198" s="1">
         <v>4</v>
@@ -4432,16 +5584,19 @@
       <c r="D198" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E198" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E198" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A200" s="1">
         <v>34</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C200" s="1">
         <v>3</v>
@@ -4449,16 +5604,19 @@
       <c r="D200" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E200" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E200" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A202" s="1">
         <v>36</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C202" s="1">
         <v>4</v>
@@ -4466,16 +5624,19 @@
       <c r="D202" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E202" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E202" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A203" s="1">
         <v>36</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C203" s="1">
         <v>3</v>
@@ -4483,16 +5644,19 @@
       <c r="D203" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E203" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E203" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A204" s="1">
         <v>36</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C204" s="1">
         <v>4</v>
@@ -4500,16 +5664,19 @@
       <c r="D204" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E204" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E204" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A205" s="1">
         <v>36</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C205" s="1">
         <v>5</v>
@@ -4517,16 +5684,19 @@
       <c r="D205" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E205" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E205" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A206" s="1">
         <v>36</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C206" s="1">
         <v>4</v>
@@ -4534,16 +5704,19 @@
       <c r="D206" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E206" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E206" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A208" s="1">
         <v>36</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C208" s="1">
         <v>4</v>
@@ -4551,16 +5724,19 @@
       <c r="D208" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E208" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E208" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A209" s="1">
         <v>36</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C209" s="1">
         <v>3</v>
@@ -4568,16 +5744,19 @@
       <c r="D209" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E209" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E209" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A210" s="1">
         <v>36</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C210" s="1">
         <v>4</v>
@@ -4585,16 +5764,19 @@
       <c r="D210" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E210" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E210" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A211" s="1">
         <v>36</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C211" s="1">
         <v>3</v>
@@ -4602,16 +5784,19 @@
       <c r="D211" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E211" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E211" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A212" s="1">
         <v>37</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C212" s="1">
         <v>4.5</v>
@@ -4619,16 +5804,19 @@
       <c r="D212" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E212" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E212" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A213" s="1">
         <v>37</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C213" s="1">
         <v>4</v>
@@ -4636,16 +5824,19 @@
       <c r="D213" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E213" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E213" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A215" s="1">
         <v>38</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C215" s="1">
         <v>3</v>
@@ -4653,16 +5844,19 @@
       <c r="D215" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E215" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E215" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A217" s="1">
         <v>38</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C217" s="1">
         <v>2</v>
@@ -4670,16 +5864,19 @@
       <c r="D217" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E217" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E217" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A218" s="1">
         <v>38</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C218" s="1">
         <v>3</v>
@@ -4687,16 +5884,19 @@
       <c r="D218" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E218" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E218" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A219" s="1">
         <v>39</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C219" s="1">
         <v>4</v>
@@ -4704,16 +5904,19 @@
       <c r="D219" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E219" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E219" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A220" s="1">
         <v>39</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C220" s="1">
         <v>3</v>
@@ -4721,16 +5924,19 @@
       <c r="D220" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E220" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E220" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A223" s="1">
         <v>39</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C223" s="1">
         <v>3</v>
@@ -4738,16 +5944,19 @@
       <c r="D223" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E223" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E223" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A225" s="1">
         <v>39</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C225" s="1">
         <v>4</v>
@@ -4755,16 +5964,19 @@
       <c r="D225" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E225" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E225" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A226" s="1">
         <v>40</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C226" s="1">
         <v>4</v>
@@ -4772,16 +5984,19 @@
       <c r="D226" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E226" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E226" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A227" s="1">
         <v>40</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C227" s="1">
         <v>4</v>
@@ -4789,16 +6004,19 @@
       <c r="D227" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E227" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E227" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A228" s="1">
         <v>40</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C228" s="1">
         <v>3</v>
@@ -4806,16 +6024,19 @@
       <c r="D228" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E228" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E228" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A229" s="1">
         <v>40</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C229" s="1">
         <v>4</v>
@@ -4823,16 +6044,19 @@
       <c r="D229" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E229" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E229" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A230" s="1">
         <v>40</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C230" s="1">
         <v>3</v>
@@ -4840,16 +6064,19 @@
       <c r="D230" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E230" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E230" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A231" s="1">
         <v>41</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C231" s="1">
         <v>4</v>
@@ -4857,16 +6084,19 @@
       <c r="D231" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E231" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E231" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A233" s="1">
         <v>41</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C233" s="1">
         <v>3</v>
@@ -4874,84 +6104,99 @@
       <c r="D233" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E233" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E233" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A234" s="1">
         <v>42</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C234" s="1">
         <v>4</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A235" s="1">
         <v>42</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C235" s="1">
         <v>3</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A236" s="1">
         <v>42</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C236" s="1">
         <v>3</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A238" s="1">
         <v>42</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C238" s="1">
         <v>4</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A239" s="1">
         <v>43</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C239" s="1">
         <v>5</v>
@@ -4959,16 +6204,19 @@
       <c r="D239" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E239" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E239" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A240" s="1">
         <v>43</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C240" s="1">
         <v>4</v>
@@ -4976,16 +6224,19 @@
       <c r="D240" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E240" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E240" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A241" s="1">
         <v>43</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C241" s="1">
         <v>3</v>
@@ -4993,16 +6244,19 @@
       <c r="D241" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E241" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E241" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A242" s="1">
         <v>43</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C242" s="1">
         <v>4</v>
@@ -5010,67 +6264,79 @@
       <c r="D242" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E242" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E242" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A244" s="1">
         <v>44</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C244" s="1">
         <v>4</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A245" s="1">
         <v>44</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C245" s="1">
         <v>3</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A246" s="1">
         <v>44</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C246" s="1">
         <v>2</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A250" s="1">
         <v>45</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C250" s="1">
         <v>4</v>
@@ -5078,16 +6344,19 @@
       <c r="D250" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E250" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E250" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A251" s="1">
         <v>45</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C251" s="1">
         <v>4</v>
@@ -5095,16 +6364,19 @@
       <c r="D251" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E251" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E251" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A252" s="1">
         <v>45</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C252" s="1">
         <v>3</v>
@@ -5112,16 +6384,19 @@
       <c r="D252" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E252" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E252" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A253" s="1">
         <v>46</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C253" s="1">
         <v>4</v>
@@ -5129,16 +6404,19 @@
       <c r="D253" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E253" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E253" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A254" s="1">
         <v>46</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C254" s="1">
         <v>4</v>
@@ -5146,16 +6424,19 @@
       <c r="D254" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E254" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E254" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A255" s="1">
         <v>46</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C255" s="1">
         <v>3</v>
@@ -5163,16 +6444,19 @@
       <c r="D255" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E255" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E255" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A257" s="1">
         <v>46</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C257" s="1">
         <v>5</v>
@@ -5180,16 +6464,19 @@
       <c r="D257" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E257" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E257" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A258" s="1">
         <v>47</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C258" s="1">
         <v>4</v>
@@ -5197,16 +6484,19 @@
       <c r="D258" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E258" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E258" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A259" s="1">
         <v>47</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C259" s="1">
         <v>3</v>
@@ -5214,16 +6504,19 @@
       <c r="D259" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E259" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E259" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A260" s="1">
         <v>47</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C260" s="1">
         <v>4</v>
@@ -5231,16 +6524,19 @@
       <c r="D260" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E260" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E260" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A261" s="1">
         <v>47</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C261" s="1">
         <v>4</v>
@@ -5248,16 +6544,19 @@
       <c r="D261" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E261" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E261" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A262" s="1">
         <v>47</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C262" s="1">
         <v>5</v>
@@ -5265,16 +6564,19 @@
       <c r="D262" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E262" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E262" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A263" s="1">
         <v>48</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C263" s="1">
         <v>4</v>
@@ -5282,16 +6584,19 @@
       <c r="D263" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E263" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E263" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A264" s="1">
         <v>48</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C264" s="1">
         <v>4</v>
@@ -5299,16 +6604,19 @@
       <c r="D264" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E264" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E264" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A267" s="1">
         <v>48</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C267" s="1">
         <v>3</v>
@@ -5316,16 +6624,19 @@
       <c r="D267" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E267" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E267" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A268" s="1">
         <v>49</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C268" s="1">
         <v>5</v>
@@ -5333,16 +6644,19 @@
       <c r="D268" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E268" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E268" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A269" s="1">
         <v>49</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C269" s="1">
         <v>3</v>
@@ -5350,16 +6664,19 @@
       <c r="D269" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E269" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E269" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A270" s="1">
         <v>49</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C270" s="1">
         <v>4</v>
@@ -5367,16 +6684,19 @@
       <c r="D270" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E270" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E270" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A271" s="1">
         <v>49</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C271" s="1">
         <v>4</v>
@@ -5384,84 +6704,99 @@
       <c r="D271" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E271" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E271" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A276" s="1">
         <v>51</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C276" s="1">
         <v>3</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A277" s="1">
         <v>51</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C277" s="1">
         <v>5</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A278" s="1">
         <v>51</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C278" s="1">
         <v>4</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A279" s="1">
         <v>51</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C279" s="1">
         <v>3</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A280" s="1">
         <v>52</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C280" s="1">
         <v>5</v>
@@ -5469,16 +6804,19 @@
       <c r="D280" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E280" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E280" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A281" s="1">
         <v>52</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C281" s="1">
         <v>3</v>
@@ -5486,16 +6824,19 @@
       <c r="D281" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E281" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E281" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A282" s="1">
         <v>52</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C282" s="1">
         <v>4</v>
@@ -5503,16 +6844,19 @@
       <c r="D282" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E282" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E282" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A285" s="1">
         <v>52</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C285" s="1">
         <v>3</v>
@@ -5520,16 +6864,19 @@
       <c r="D285" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E285" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E285" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A286" s="1">
         <v>52</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C286" s="1">
         <v>5</v>
@@ -5537,67 +6884,79 @@
       <c r="D286" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E286" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E286" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A289" s="1">
         <v>53</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C289" s="1">
         <v>4</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A290" s="1">
         <v>53</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C290" s="1">
         <v>3</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A291" s="1">
         <v>53</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C291" s="1">
         <v>3</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A294" s="1">
         <v>54</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C294" s="1">
         <v>4</v>
@@ -5605,16 +6964,19 @@
       <c r="D294" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E294" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E294" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A299" s="1">
         <v>55</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C299" s="1">
         <v>4</v>
@@ -5622,16 +6984,19 @@
       <c r="D299" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E299" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E299" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A301" s="1">
         <v>56</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C301" s="1">
         <v>4</v>
@@ -5639,16 +7004,19 @@
       <c r="D301" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E301" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E301" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A305" s="1">
         <v>57</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C305" s="1">
         <v>4</v>
@@ -5656,16 +7024,19 @@
       <c r="D305" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E305" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E305" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A306" s="1">
         <v>57</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C306" s="1">
         <v>3</v>
@@ -5673,16 +7044,19 @@
       <c r="D306" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E306" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E306" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A308" s="1">
         <v>57</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C308" s="1">
         <v>4</v>
@@ -5690,16 +7064,19 @@
       <c r="D308" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E308" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E308" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A315" s="1">
         <v>59</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C315" s="1">
         <v>3</v>
@@ -5707,101 +7084,119 @@
       <c r="D315" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E315" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E315" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A316" s="1">
         <v>60</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C316" s="1">
         <v>5</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A317" s="1">
         <v>60</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C317" s="1">
         <v>5</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A318" s="1">
         <v>60</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C318" s="1">
         <v>4</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E318" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E318" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A319" s="1">
         <v>60</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C319" s="1">
         <v>4</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A320" s="1">
         <v>60</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C320" s="1">
         <v>4</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A321" s="1">
         <v>61</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C321" s="1">
         <v>4</v>
@@ -5809,16 +7204,19 @@
       <c r="D321" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E321" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E321" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A322" s="1">
         <v>61</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C322" s="1">
         <v>5</v>
@@ -5826,16 +7224,19 @@
       <c r="D322" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E322" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E322" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A323" s="1">
         <v>61</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C323" s="1">
         <v>4</v>
@@ -5843,16 +7244,19 @@
       <c r="D323" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E323" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E323" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F323" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A324" s="1">
         <v>61</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C324" s="1">
         <v>4</v>
@@ -5860,33 +7264,39 @@
       <c r="D324" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E324" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E324" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A327" s="1">
         <v>62</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C327" s="1">
         <v>4</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A328" s="1">
         <v>63</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C328" s="1">
         <v>5</v>
@@ -5894,16 +7304,19 @@
       <c r="D328" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E328" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E328" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A330" s="1">
         <v>63</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C330" s="1">
         <v>4</v>
@@ -5911,16 +7324,19 @@
       <c r="D330" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E330" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E330" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F330" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A331" s="1">
         <v>64</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C331" s="1">
         <v>4</v>
@@ -5928,16 +7344,19 @@
       <c r="D331" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E331" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E331" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A332" s="1">
         <v>64</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C332" s="1">
         <v>4</v>
@@ -5945,16 +7364,19 @@
       <c r="D332" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E332" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E332" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F332" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A333" s="1">
         <v>64</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C333" s="1">
         <v>5</v>
@@ -5962,16 +7384,19 @@
       <c r="D333" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E333" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E333" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F333" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A335" s="1">
         <v>65</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C335" s="1">
         <v>4</v>
@@ -5979,16 +7404,19 @@
       <c r="D335" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E335" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E335" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F335" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A337" s="1">
         <v>66</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C337" s="1">
         <v>4</v>
@@ -5996,15 +7424,18 @@
       <c r="D337" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E337" s="1" t="s">
-        <v>465</v>
+      <c r="E337" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>701</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E318" r:id="rId1" xr:uid="{11516621-A74D-46BE-A3CF-DE00ECF7FAD3}"/>
-    <hyperlink ref="E112" r:id="rId2" xr:uid="{4137A055-47B0-4305-AC5F-96059F4CB979}"/>
+    <hyperlink ref="E112" r:id="rId2" xr:uid="{6331CFBF-B70B-4832-993D-10FA7A8E0FE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
